--- a/data/law_cause.xlsx
+++ b/data/law_cause.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="桂林市城市市容和环境卫生管理条例" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="长江河道采砂管理条例" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中华人民共和国固体废物污染环境防治法" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,47 +504,47 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl1</t>
+          <t>zhrmghggtfwwrhjfzf1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>市容和环境卫生责任人不履行保洁责任</t>
+          <t>产生工业固体废物的单位违反规定，未取得排污许可证</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>负责市容美化、卫生保洁</t>
+          <t>应当取得排污许可证</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>第9条第1款</t>
+          <t>第39条第1款</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>市容和环境卫生责任人负责责任区内的市容美化、卫生保洁等工作：</t>
+          <t>产生工业固体废物的单位应当取得排污许可证。排污许可的具体办法和实施步骤由国务院规定。</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>第37条第1款</t>
+          <t>第37条第3款</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第9条规定，市容和环境卫生责任人不履行保洁责任的，由市容环境卫生行政主管部门或者相关行政主管部门责令限期改正；逾期不改正的，对个人处五十元以上二百元以下罚款，对单位处五百元以上五千元以下罚款。</t>
+          <t>产生工业固体废物的单位违反本条第1款规定的，除依照有关法律法规的规定予以处罚外，还应当与造成环境污染和生态破坏的受托方承担连带责任。</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>第37条第1款</t>
+          <t>第37条第3款</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第9条规定，市容和环境卫生责任人不履行保洁责任的，由市容环境卫生行政主管部门或者相关行政主管部门责令限期改正；逾期不改正的，对个人处五十元以上二百元以下罚款，对单位处五百元以上五千元以下罚款。</t>
+          <t>产生工业固体废物的单位违反本条第1款规定的，除依照有关法律法规的规定予以处罚外，还应当与造成环境污染和生态破坏的受托方承担连带责任。</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
@@ -557,99 +556,99 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl2</t>
+          <t>zhrmghggtfwwrhjfzf2</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>乱堆放、乱设置影响市容</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门未依法作出行政许可</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>不得乱堆放、乱设置</t>
+          <t>未依法作出行政许可</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>第11条第1款</t>
+          <t>第101条第1款第1项</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>建(构)筑物应当符合城市容貌标准，不得擅自改变建(构)筑物原貌，不得擅自在建(构)筑物外墙开门窗，不得在屋顶乱搭建、乱堆放，不得擅自改变屋顶结构。在屋顶安装固定设施应当规范设置。</t>
+          <t>未依法作出行政许可或者办理批准文件的；</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>第38条第2款</t>
+          <t>第101条第1款第1项</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第11条第1款规定，乱堆放、乱设置影响市容的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处五百元以上五千元以下罚款。</t>
+          <t>未依法作出行政许可或者办理批准文件的；</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>第38条第2款</t>
+          <t>第101条第1款</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第11条第1款规定，乱堆放、乱设置影响市容的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处五百元以上五千元以下罚款。</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门违反本法规定，有下列行为之一，由本级人民政府或者上级人民政府有关部门责令改正，对直接负责的主管人员和其他直接责任人员依法给予处分：</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl3</t>
+          <t>zhrmghggtfwwrhjfzf3</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>建(构)筑物的所有者未对破损、污损的建(构)筑物外立面进行整修、清洗，影响市容</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门未依法办理批准文件</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>应当进行整修、清洗</t>
+          <t>未依法办理批准文件</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>第11条第2款</t>
+          <t>第101条第1款第1项</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>主要街道和重点区域建(构)筑物的所有者应当对破损、污损的建(构)筑物外立面进行整修、清洗。</t>
+          <t>未依法作出行政许可或者办理批准文件的；</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>第38条第3款</t>
+          <t>第101条第1款第1项</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第11条第2款规定，建(构)筑物的外立面破损影响市容的，由市容环境卫生行政主管部门责令建(构)筑物的所有者限期清理、拆除或者采取其他补救措施，并可处二百元以上二千元以下罚款。</t>
+          <t>未依法作出行政许可或者办理批准文件的；</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>第38条第3款</t>
+          <t>第101条第1款</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第11条第2款规定，建(构)筑物的外立面破损影响市容的，由市容环境卫生行政主管部门责令建(构)筑物的所有者限期清理、拆除或者采取其他补救措施，并可处二百元以上二千元以下罚款。</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门违反本法规定，有下列行为之一，由本级人民政府或者上级人民政府有关部门责令改正，对直接负责的主管人员和其他直接责任人员依法给予处分：</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
@@ -661,47 +660,47 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl4</t>
+          <t>zhrmghggtfwwrhjfzf4</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>在城市主要街道和重点区域临街建筑物的阳台外、窗外、平台、外走廊堆放或者吊挂影响市容、危及安全的物品</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门对违法行为进行包庇</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>不得堆放或者吊挂</t>
+          <t>对违法行为进行包庇</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>第12条第1款</t>
+          <t>第101条第1款第2项</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>城市主要街道和重点区域临街建筑物的阳台外、窗外、平台、外走廊，不得堆放或者吊挂影响市容、危及安全的物品，不得超出墙体外立面安装防盗窗(网)，不得擅自搭建遮阳雨棚。</t>
+          <t>对违法行为进行包庇的；</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>第39条第1款</t>
+          <t>第101条第1款第2项</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第12条第1款的规定，堆放或者吊挂影响市容、危及安全的物品，超出墙体外立面安装防盗窗(网)，擅自搭建遮阳雨棚的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处二百元以下罚款。</t>
+          <t>对违法行为进行包庇的；</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>第39条第1款</t>
+          <t>第101条第1款</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第12条第1款的规定，堆放或者吊挂影响市容、危及安全的物品，超出墙体外立面安装防盗窗(网)，擅自搭建遮阳雨棚的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处二百元以下罚款。</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门违反本法规定，有下列行为之一，由本级人民政府或者上级人民政府有关部门责令改正，对直接负责的主管人员和其他直接责任人员依法给予处分：</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
@@ -713,203 +712,203 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl5</t>
+          <t>zhrmghggtfwwrhjfzf5</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>在城市主要街道和重点区域临街建筑物的阳台外、窗外、平台、外走廊超出墙体外立面安装防盗窗(网)</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门未依法查封、扣押</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>不得超出墙体外立面</t>
+          <t>未依法查封、扣押</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>第12条第1款</t>
+          <t>第101条第1款第3项</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>城市主要街道和重点区域临街建筑物的阳台外、窗外、平台、外走廊，不得堆放或者吊挂影响市容、危及安全的物品，不得超出墙体外立面安装防盗窗(网)，不得擅自搭建遮阳雨棚。</t>
+          <t>未依法查封、扣押的；</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>第39条第1款</t>
+          <t>第101条第1款第3项</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第12条第1款的规定，堆放或者吊挂影响市容、危及安全的物品，超出墙体外立面安装防盗窗(网)，擅自搭建遮阳雨棚的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处二百元以下罚款。</t>
+          <t>未依法查封、扣押的；</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>第39条第1款</t>
+          <t>第101条第1款</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第12条第1款的规定，堆放或者吊挂影响市容、危及安全的物品，超出墙体外立面安装防盗窗(网)，擅自搭建遮阳雨棚的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处二百元以下罚款。</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门违反本法规定，有下列行为之一，由本级人民政府或者上级人民政府有关部门责令改正，对直接负责的主管人员和其他直接责任人员依法给予处分：</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl6</t>
+          <t>zhrmghggtfwwrhjfzf6</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>在城市主要街道和重点区域临街建筑物的阳台外、窗外、平台、外走廊擅自搭建遮阳雨棚</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门发现违法行为或者接到对违法行为的举报后未予查处</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>不得擅自搭建</t>
+          <t>未予查处</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>第12条第1款</t>
+          <t>第101条第1款第4项</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>城市主要街道和重点区域临街建筑物的阳台外、窗外、平台、外走廊，不得堆放或者吊挂影响市容、危及安全的物品，不得超出墙体外立面安装防盗窗(网)，不得擅自搭建遮阳雨棚。</t>
+          <t>发现违法行为或者接到对违法行为的举报后未予查处的；</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>第39条第1款</t>
+          <t>第101条第1款第4项</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第12条第1款的规定，堆放或者吊挂影响市容、危及安全的物品，超出墙体外立面安装防盗窗(网)，擅自搭建遮阳雨棚的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处二百元以下罚款。</t>
+          <t>发现违法行为或者接到对违法行为的举报后未予查处的；</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>第39条第1款</t>
+          <t>第101条第1款</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第12条第1款的规定，堆放或者吊挂影响市容、危及安全的物品，超出墙体外立面安装防盗窗(网)，擅自搭建遮阳雨棚的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处二百元以下罚款。</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门违反本法规定，有下列行为之一，由本级人民政府或者上级人民政府有关部门责令改正，对直接负责的主管人员和其他直接责任人员依法给予处分：</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl7</t>
+          <t>zhrmghggtfwwrhjfzf7</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>在城市主要街道和重点区域临街建筑物不按规定安装空调、热水器等设施影响市容</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门有其他滥用职权、玩忽职守、徇私舞弊等违法行为</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>应当符合城市容貌标准</t>
+          <t>滥用职权、玩忽职守</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>第12条第2款</t>
+          <t>第101条第1款第5项</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>在城市主要街道和重点区域临街建筑物安装空调、热水器等设施应当符合城市容貌标准。</t>
+          <t>有其他滥用职权、玩忽职守、徇私舞弊等违法行为的。</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>第39条第2款</t>
+          <t>第101条第1款第5项</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第12条第2款的规定，不按规定安装空调、热水器等设施影响市容的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处一百元以上一千元以下罚款。</t>
+          <t>有其他滥用职权、玩忽职守、徇私舞弊等违法行为的。</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>第39条第2款</t>
+          <t>第101条第1款</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第12条第2款的规定，不按规定安装空调、热水器等设施影响市容的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处一百元以上一千元以下罚款。</t>
+          <t>生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门违反本法规定，有下列行为之一，由本级人民政府或者上级人民政府有关部门责令改正，对直接负责的主管人员和其他直接责任人员依法给予处分：</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>不</t>
+          <t>乱</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl8</t>
+          <t>zhrmghggtfwwrhjfzf8</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>责任人未在施工现场公示占道范围、占道期限和批准单位</t>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位未依法及时公开固体废物污染环境防治信息</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>应当公示占道范围</t>
+          <t>应当依法及时公开</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>第14条第1款</t>
+          <t>第29条第2款</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>经批准挖掘城市道路的，应当在施工现场公示占道范围、占道期限和批准单位。</t>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位，应当依法及时公开固体废物污染环境防治信息，主动接受社会监督。</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>第40条第1款</t>
+          <t>第102条第1款第1项</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第14条规定，责任人未在施工现场公示占道范围、占道期限和批准单位，擅自在道路路缘、道路隔离带以及人行道上搭斜坡的，由市政工程行政主管部门责令限期改正，并可处二百元以上五百元以下罚款。擅自开挖进出口或者通道的，由市政工程行政主管部门责令限期改正，并可处二万元以下罚款。</t>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位未依法及时公开固体废物污染环境防治信息的；</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>第40条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第14条规定，责任人未在施工现场公示占道范围、占道期限和批准单位，擅自在道路路缘、道路隔离带以及人行道上搭斜坡的，由市政工程行政主管部门责令限期改正，并可处二百元以上五百元以下罚款。擅自开挖进出口或者通道的，由市政工程行政主管部门责令限期改正，并可处二万元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
@@ -921,99 +920,99 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl9</t>
+          <t>zhrmghggtfwwrhjfzf9</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>责任人擅自在道路路缘、道路隔离带以及人行道上搭斜坡</t>
+          <t>生活垃圾处理单位未按照国家有关规定安装使用监测设备、实时监测污染物的排放情况并公开污染排放数据</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>不得擅自搭斜坡</t>
+          <t>应当安装使用监测设备</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>第14条第2款</t>
+          <t>第56条第1款</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人不得擅自在道路路缘、道路隔离带以及人行道上搭斜坡，不得擅自开挖进出口或者通道。</t>
+          <t>生活垃圾处理单位应当按照国家有关规定，安装使用监测设备，实时监测污染物的排放情况，将污染排放数据实时公开。监测设备应当与所在地生态环境主管部门的监控设备联网。</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>第40条第1款</t>
+          <t>第102条第1款第2项</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第14条规定，责任人未在施工现场公示占道范围、占道期限和批准单位，擅自在道路路缘、道路隔离带以及人行道上搭斜坡的，由市政工程行政主管部门责令限期改正，并可处二百元以上五百元以下罚款。擅自开挖进出口或者通道的，由市政工程行政主管部门责令限期改正，并可处二万元以下罚款。</t>
+          <t>生活垃圾处理单位未按照国家有关规定安装使用监测设备、实时监测污染物的排放情况并公开污染排放数据的；</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>第40条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第14条规定，责任人未在施工现场公示占道范围、占道期限和批准单位，擅自在道路路缘、道路隔离带以及人行道上搭斜坡的，由市政工程行政主管部门责令限期改正，并可处二百元以上五百元以下罚款。擅自开挖进出口或者通道的，由市政工程行政主管部门责令限期改正，并可处二万元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl10</t>
+          <t>zhrmghggtfwwrhjfzf10</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>责任人擅自开挖进出口或者通道</t>
+          <t>将列入限期淘汰名录被淘汰的设备转让给他人使用</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>不得擅自开挖</t>
+          <t>不得转让给他人使用</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>第14条第2款</t>
+          <t>第33条第3款</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人不得擅自在道路路缘、道路隔离带以及人行道上搭斜坡，不得擅自开挖进出口或者通道。</t>
+          <t>列入限期淘汰名录被淘汰的设备，不得转让给他人使用。</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>第40条第1款</t>
+          <t>第102条第1款第3项</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第14条规定，责任人未在施工现场公示占道范围、占道期限和批准单位，擅自在道路路缘、道路隔离带以及人行道上搭斜坡的，由市政工程行政主管部门责令限期改正，并可处二百元以上五百元以下罚款。擅自开挖进出口或者通道的，由市政工程行政主管部门责令限期改正，并可处二万元以下罚款。</t>
+          <t>将列入限期淘汰名录被淘汰的设备转让给他人使用的；</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>第40条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第14条规定，责任人未在施工现场公示占道范围、占道期限和批准单位，擅自在道路路缘、道路隔离带以及人行道上搭斜坡的，由市政工程行政主管部门责令限期改正，并可处二百元以上五百元以下罚款。擅自开挖进出口或者通道的，由市政工程行政主管部门责令限期改正，并可处二万元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
@@ -1025,47 +1024,47 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl11</t>
+          <t>zhrmghggtfwwrhjfzf11</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>架设电力、电信、有线电视、通讯等线缆不符合城市容貌标准</t>
+          <t>在生态保护红线区域、永久基本农田集中区域和其他需要特别保护的区域内，建设工业固体废物、危险废物集中贮存、利用、处置的设施、场所和生活垃圾填埋场</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>应当符合城市容貌标准</t>
+          <t>禁止建设工业固体废物</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>第15条第1款</t>
+          <t>第21条第1款</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>在空中架设电力、电信、有线电视、通讯等线缆，或者依附于城市道路建设各种管线、杆线等设施，应当符合城市容貌标准。新建线缆设施应当入地敷设，各种架空线缆应当按规划入地敷设。</t>
+          <t>在生态保护红线区域、永久基本农田集中区域和其他需要特别保护的区域内，禁止建设工业固体废物、危险废物集中贮存、利用、处置的设施、场所和生活垃圾填埋场。</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>第41条第1款</t>
+          <t>第102条第1款第4项</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第15条规定，架设有关线缆不符合城市容貌标准的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处一千元以上一万元以下罚款。</t>
+          <t>在生态保护红线区域、永久基本农田集中区域和其他需要特别保护的区域内，建设工业固体废物、危险废物集中贮存、利用、处置的设施、场所和生活垃圾填埋场的；</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>第41条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第15条规定，架设有关线缆不符合城市容貌标准的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处一千元以上一万元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
@@ -1077,99 +1076,99 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl12</t>
+          <t>zhrmghggtfwwrhjfzf12</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>闲置用地或者待建用地未设置符合城市容貌标准围挡</t>
+          <t>转移固体废物出省、自治区、直辖市行政区域贮存、处置未经批准</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>应当设置围挡</t>
+          <t>未经批准的，不得转移</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>第16条第1款</t>
+          <t>第22条第1款</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>闲置用地、待建用地、装饰装修场地应当设置符合城市容貌标准的围挡。</t>
+          <t>转移固体废物出省、自治区、直辖市行政区域贮存、处置的，应当向固体废物移出地的省、自治区、直辖市人民政府生态环境主管部门提出申请。移出地的省、自治区、直辖市人民政府生态环境主管部门应当及时商经接受地的省、自治区、直辖市人民政府生态环境主管部门同意后，在规定期限内批准转移该固体废物出省、自治区、直辖市行政区域。未经批准的，不得转移。</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>第42条第1款</t>
+          <t>第102条第1款第5项</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第16条规定，闲置用地或者待建用地未设置符合城市容貌标准围挡的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处一千元以上一万元以下罚款。装饰装修场地未设置符合城市容貌标准围挡的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处二百元以上二千元以下罚款。</t>
+          <t>转移固体废物出省、自治区、直辖市行政区域贮存、处置未经批准的；</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>第42条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第16条规定，闲置用地或者待建用地未设置符合城市容貌标准围挡的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处一千元以上一万元以下罚款。装饰装修场地未设置符合城市容貌标准围挡的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处二百元以上二千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>不</t>
+          <t>乱</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl13</t>
+          <t>zhrmghggtfwwrhjfzf13</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>装饰装修场地未设置符合城市容貌标准围挡</t>
+          <t>转移固体废物出省、自治区、直辖市行政区域利用未报备案</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>应当设置围挡</t>
+          <t>应当报备案</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>第16条第1款</t>
+          <t>第22条第2款</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>闲置用地、待建用地、装饰装修场地应当设置符合城市容貌标准的围挡。</t>
+          <t>转移固体废物出省、自治区、直辖市行政区域利用的，应当报固体废物移出地的省、自治区、直辖市人民政府生态环境主管部门备案。移出地的省、自治区、直辖市人民政府生态环境主管部门应当将备案信息通报接受地的省、自治区、直辖市人民政府生态环境主管部门。</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>第42条第1款</t>
+          <t>第102条第1款第6项</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第16条规定，闲置用地或者待建用地未设置符合城市容貌标准围挡的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处一千元以上一万元以下罚款。装饰装修场地未设置符合城市容貌标准围挡的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处二百元以上二千元以下罚款。</t>
+          <t>转移固体废物出省、自治区、直辖市行政区域利用未报备案的；</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>第42条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第16条规定，闲置用地或者待建用地未设置符合城市容貌标准围挡的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处一千元以上一万元以下罚款。装饰装修场地未设置符合城市容貌标准围挡的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处二百元以上二千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
@@ -1181,99 +1180,99 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl14</t>
+          <t>zhrmghggtfwwrhjfzf14</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>路灯照明设施的设置单位或者管理单位不履行维护、修缮义务</t>
+          <t>擅自倾倒、堆放、丢弃、遗撒工业固体废物，造成环境污染</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>应当加强维护管理</t>
+          <t>不得擅自倾倒</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>第17条第1款</t>
+          <t>第20条第1款</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>路灯照明设施的设置单位或者管理单位应当加强照明设施的设置和维护管理，做到使用安全、整洁美观，达到规定的标准和要求，并按照规定开闭路灯照明设施。路灯照明设施损坏、断亮的，应当及时维修或者更换。</t>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位和其他生产经营者，应当采取防扬散、防流失、防渗漏或者其他防止污染环境的措施，不得擅自倾倒、堆放、丢弃、遗撒固体废物。</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>第43条第1款</t>
+          <t>第102条第1款第7项</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第17条规定，不履行城市照明或者景观灯维护、修缮义务的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处二百元以上一千元以下罚款。</t>
+          <t>擅自倾倒、堆放、丢弃、遗撒工业固体废物，或者未采取相应防范措施，造成工业固体废物扬散、流失、渗漏或者其他环境污染的；</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>第43条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第17条规定，不履行城市照明或者景观灯维护、修缮义务的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处二百元以上一千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>不</t>
+          <t>乱</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl15</t>
+          <t>zhrmghggtfwwrhjfzf15</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>景观灯光设施的所有者或者管理者不履行维护、修缮义务</t>
+          <t>未采取相应防范措施，造成工业固体废物扬散、流失、渗漏或者其他环境污染</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>应当保持设施完好</t>
+          <t>应当采取防扬散</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>第17条第2款</t>
+          <t>第20条第1款</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>景观灯光设施的所有者或者管理者应当保持景观灯光设施外观完好、功能正常，并按照规定的时间使用景观灯光设施。</t>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位和其他生产经营者，应当采取防扬散、防流失、防渗漏或者其他防止污染环境的措施，不得擅自倾倒、堆放、丢弃、遗撒固体废物。</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>第43条第1款</t>
+          <t>第102条第1款第7项</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第17条规定，不履行城市照明或者景观灯维护、修缮义务的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处二百元以上一千元以下罚款。</t>
+          <t>擅自倾倒、堆放、丢弃、遗撒工业固体废物，或者未采取相应防范措施，造成工业固体废物扬散、流失、渗漏或者其他环境污染的；</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>第43条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第17条规定，不履行城市照明或者景观灯维护、修缮义务的，由市容环境卫生行政主管部门责令限期改正；逾期不改正的，处二百元以上一千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
@@ -1285,99 +1284,99 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl16</t>
+          <t>zhrmghggtfwwrhjfzf16</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>临街和广场周边的经营者超出门窗进行店外经营</t>
+          <t>产生工业固体废物的单位未建立固体废物管理台账并如实记录</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>不得超出门窗</t>
+          <t>应当建立管理台账</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>第18条第1款</t>
+          <t>第36条第1款</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>临街和广场周边的经营者不得超出门窗进行店外经营、作业，不得在店外堆放、吊挂、展示、晾晒物品，不得摆放广告牌、灯箱和其他影响市容的物品。</t>
+          <t>产生工业固体废物的单位应当建立健全工业固体废物产生、收集、贮存、运输、利用、处置全过程的污染环境防治责任制度，建立工业固体废物管理台账，如实记录产生工业固体废物的种类、数量、流向、贮存、利用、处置等信息，实现工业固体废物可追溯、可查询，并采取防治工业固体废物污染环境的措施。</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>第44条第1款</t>
+          <t>第102条第1款第8项</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第1款规定，经营者超出门窗进行店外经营，在店外堆放、吊挂、展示、晾晒物品，摆放影响市容的物品的，由市容环境卫生行政主管部门责令改正，并可处五十元以上二百元以下罚款。</t>
+          <t>产生工业固体废物的单位未建立固体废物管理台账并如实记录的；</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>第44条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第1款规定，经营者超出门窗进行店外经营，在店外堆放、吊挂、展示、晾晒物品，摆放影响市容的物品的，由市容环境卫生行政主管部门责令改正，并可处五十元以上二百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl17</t>
+          <t>zhrmghggtfwwrhjfzf17</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>临街和广场周边的经营者在店外堆放、吊挂、展示、晾晒物品</t>
+          <t>产生工业固体废物的单位违反本法规定委托他人运输、利用、处置工业固体废物</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>不得在店外堆放</t>
+          <t>应当建立健全责任制度</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>第18条第1款</t>
+          <t>第36条第1款</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>临街和广场周边的经营者不得超出门窗进行店外经营、作业，不得在店外堆放、吊挂、展示、晾晒物品，不得摆放广告牌、灯箱和其他影响市容的物品。</t>
+          <t>产生工业固体废物的单位应当建立健全工业固体废物产生、收集、贮存、运输、利用、处置全过程的污染环境防治责任制度，建立工业固体废物管理台账，如实记录产生工业固体废物的种类、数量、流向、贮存、利用、处置等信息，实现工业固体废物可追溯、可查询，并采取防治工业固体废物污染环境的措施。</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>第44条第1款</t>
+          <t>第102条第1款第9项</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第1款规定，经营者超出门窗进行店外经营，在店外堆放、吊挂、展示、晾晒物品，摆放影响市容的物品的，由市容环境卫生行政主管部门责令改正，并可处五十元以上二百元以下罚款。</t>
+          <t>产生工业固体废物的单位违反本法规定委托他人运输、利用、处置工业固体废物的；</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>第44条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第1款规定，经营者超出门窗进行店外经营，在店外堆放、吊挂、展示、晾晒物品，摆放影响市容的物品的，由市容环境卫生行政主管部门责令改正，并可处五十元以上二百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
@@ -1389,99 +1388,99 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl18</t>
+          <t>zhrmghggtfwwrhjfzf18</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>临街和广场周边的经营者摆放影响市容的物品</t>
+          <t>贮存工业固体废物未采取符合国家环境保护标准的防护措施</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>不得摆放影响市容</t>
+          <t>应当采取防护措施</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>第18条第1款</t>
+          <t>第40条第1款</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>临街和广场周边的经营者不得超出门窗进行店外经营、作业，不得在店外堆放、吊挂、展示、晾晒物品，不得摆放广告牌、灯箱和其他影响市容的物品。</t>
+          <t>产生工业固体废物的单位应当根据经济、技术条件对工业固体废物加以利用；对暂时不利用或者不能利用的，应当按照国务院生态环境等主管部门的规定建设贮存设施、场所，安全分类存放，或者采取无害化处置措施。贮存工业固体废物应当采取符合国家环境保护标准的防护措施。</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>第44条第1款</t>
+          <t>第102条第1款第10项</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第1款规定，经营者超出门窗进行店外经营，在店外堆放、吊挂、展示、晾晒物品，摆放影响市容的物品的，由市容环境卫生行政主管部门责令改正，并可处五十元以上二百元以下罚款。</t>
+          <t>贮存工业固体废物未采取符合国家环境保护标准的防护措施的；</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>第44条第1款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第1款规定，经营者超出门窗进行店外经营，在店外堆放、吊挂、展示、晾晒物品，摆放影响市容的物品的，由市容环境卫生行政主管部门责令改正，并可处五十元以上二百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl19</t>
+          <t>zhrmghggtfwwrhjfzf19</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>从事车辆清洗修理、废品收购和废弃物接纳作业占用城市道路、人行道和其他公共场所经营</t>
+          <t>单位和其他生产经营者违反固体废物管理其他要求，污染环境、破坏生态</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>不得占用城市道路</t>
+          <t>污染环境、破坏生态</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>第18条第2款</t>
+          <t>第122条第1款</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>从事车辆清洗修理、废品收购和废弃物接纳作业的，不得占用城市道路、人行道和其他公共场所经营，并应当保持经营场所周围环境整洁。</t>
+          <t>固体废物污染环境、破坏生态给国家造成重大损失的，由设区的市级以上地方人民政府或者其指定的部门、机构组织与造成环境污染和生态破坏的单位和其他生产经营者进行磋商，要求其承担损害赔偿责任；磋商未达成一致的，可以向人民法院提起诉讼。</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>第44条第2款</t>
+          <t>第102条第1款第11项</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第2款规定，占用城市道路、人行道和其他公共场所作业或者作业影响周围环境整洁的，由市容环境卫生行政主管部门责令改正，并可处二百元以上二千元以下罚款。</t>
+          <t>单位和其他生产经营者违反固体废物管理其他要求，污染环境、破坏生态的。</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>第44条第2款</t>
+          <t>第102条第1款|第102条第2款</t>
         </is>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第2款规定，占用城市道路、人行道和其他公共场所作业或者作业影响周围环境整洁的，由市容环境卫生行政主管部门责令改正，并可处二百元以上二千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第102条第1款第1项、第1款第8项行为之一，处五万元以上二十万元以下的罚款；有第102条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项、第1款第9项、第1款第10项、第1款第11项行为之一，处十万元以上一百万元以下的罚款；有第102条第1款第7项行为，处所需处置费用一倍以上三倍以下的罚款，所需处置费用不足十万元的，按十万元计算。对第102条第1款第11项行为的处罚，有关法律、行政法规另有规定的，适用其规定。</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
@@ -1493,47 +1492,47 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl20</t>
+          <t>zhrmghggtfwwrhjfzf20</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>从事车辆清洗修理、废品收购和废弃物接纳作业影响经营场所周围环境整洁</t>
+          <t>以拖延、围堵、滞留执法人员等方式拒绝、阻挠监督检查</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>应当保持环境整洁</t>
+          <t>应当如实反映情况</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>第18条第2款</t>
+          <t>第26条第1款</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>从事车辆清洗修理、废品收购和废弃物接纳作业的，不得占用城市道路、人行道和其他公共场所经营，并应当保持经营场所周围环境整洁。</t>
+          <t>生态环境主管部门及其环境执法机构和其他负有固体废物污染环境防治监督管理职责的部门，在各自职责范围内有权对从事产生、收集、贮存、运输、利用、处置固体废物等活动的单位和其他生产经营者进行现场检查。被检查者应当如实反映情况，并提供必要的资料。</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>第44条第2款</t>
+          <t>第103条第1款</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第2款规定，占用城市道路、人行道和其他公共场所作业或者作业影响周围环境整洁的，由市容环境卫生行政主管部门责令改正，并可处二百元以上二千元以下罚款。</t>
+          <t>违反本法规定，以拖延、围堵、滞留执法人员等方式拒绝、阻挠监督检查，或者在接受监督检查时弄虚作假的，由生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门责令改正，处五万元以上二十万元以下的罚款；对直接负责的主管人员和其他直接责任人员，处二万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>第44条第2款</t>
+          <t>第103条第1款</t>
         </is>
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第18条第2款规定，占用城市道路、人行道和其他公共场所作业或者作业影响周围环境整洁的，由市容环境卫生行政主管部门责令改正，并可处二百元以上二千元以下罚款。</t>
+          <t>违反本法规定，以拖延、围堵、滞留执法人员等方式拒绝、阻挠监督检查，或者在接受监督检查时弄虚作假的，由生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门责令改正，处五万元以上二十万元以下的罚款；对直接负责的主管人员和其他直接责任人员，处二万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
@@ -1545,47 +1544,47 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl21</t>
+          <t>zhrmghggtfwwrhjfzf21</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人擅自在城市主要街道、重点区域和公共场所设摊经营、兜售物品</t>
+          <t>在接受监督检查时弄虚作假</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>不得擅自设摊经营</t>
+          <t>应当如实反映情况</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>第19条第1款</t>
+          <t>第26条第1款</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人不得擅自在城市主要街道、重点区域和公共场所设摊经营、兜售物品。</t>
+          <t>生态环境主管部门及其环境执法机构和其他负有固体废物污染环境防治监督管理职责的部门，在各自职责范围内有权对从事产生、收集、贮存、运输、利用、处置固体废物等活动的单位和其他生产经营者进行现场检查。被检查者应当如实反映情况，并提供必要的资料。</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>第45条第1款</t>
+          <t>第103条第1款</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第19条第1款规定，在城市主要街道、重点区域和公共场所擅自设摊经营、兜售物品的，由市容环境卫生行政主管部门责令改正，并可处五十元以上五百元以下罚款。</t>
+          <t>违反本法规定，以拖延、围堵、滞留执法人员等方式拒绝、阻挠监督检查，或者在接受监督检查时弄虚作假的，由生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门责令改正，处五万元以上二十万元以下的罚款；对直接负责的主管人员和其他直接责任人员，处二万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>第45条第1款</t>
+          <t>第103条第1款</t>
         </is>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第19条第1款规定，在城市主要街道、重点区域和公共场所擅自设摊经营、兜售物品的，由市容环境卫生行政主管部门责令改正，并可处五十元以上五百元以下罚款。</t>
+          <t>违反本法规定，以拖延、围堵、滞留执法人员等方式拒绝、阻挠监督检查，或者在接受监督检查时弄虚作假的，由生态环境主管部门或者其他负有固体废物污染环境防治监督管理职责的部门责令改正，处五万元以上二十万元以下的罚款；对直接负责的主管人员和其他直接责任人员，处二万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
@@ -1597,411 +1596,411 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl22</t>
+          <t>zhrmghggtfwwrhjfzf22</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>未经依法批准举办活动</t>
+          <t>产生工业固体废物的单位未依法取得排污许可证</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>经依法批准举办活动</t>
+          <t>应当取得排污许可证</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>第19条第2款</t>
+          <t>第39条第1款</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>经依法批准临时占用城市道路和公共场所举办庆典、文化、促销等商业和公益活动的，活动设施的摆放、使用不得影响市容。举办者应当按照要求设置公共环境卫生设施，保持周围市容和环境卫生整洁；活动结束后，应当及时清除设置的设施和废弃物。</t>
+          <t>产生工业固体废物的单位应当取得排污许可证。排污许可的具体办法和实施步骤由国务院规定。</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>第45条第2款</t>
+          <t>第104条第1款</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第19条第2款规定，未经依法批准举办活动或者经依法批准举办活动后影响市容和环境卫生的，由市容环境卫生行政主管部门对个人处二十元以上二百元以下罚款，对单位处五百元以上一千元以下罚款。</t>
+          <t>违反本法规定，未依法取得排污许可证产生工业固体废物的，由生态环境主管部门责令改正或者限制生产、停产整治，处十万元以上一百万元以下的罚款；情节严重的，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>第45条第2款</t>
+          <t>第104条第1款</t>
         </is>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第19条第2款规定，未经依法批准举办活动或者经依法批准举办活动后影响市容和环境卫生的，由市容环境卫生行政主管部门对个人处二十元以上二百元以下罚款，对单位处五百元以上一千元以下罚款。</t>
+          <t>违反本法规定，未依法取得排污许可证产生工业固体废物的，由生态环境主管部门责令改正或者限制生产、停产整治，处十万元以上一百万元以下的罚款；情节严重的，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl23</t>
+          <t>zhrmghggtfwwrhjfzf23</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>经依法批准举办活动后影响市容和环境卫生</t>
+          <t>生产经营者未遵守限制商品过度包装的强制性标准</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>保持周围市容整洁</t>
+          <t>应当遵守强制性标准</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>第19条第2款</t>
+          <t>第68条第2款</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>经依法批准临时占用城市道路和公共场所举办庆典、文化、促销等商业和公益活动的，活动设施的摆放、使用不得影响市容。举办者应当按照要求设置公共环境卫生设施，保持周围市容和环境卫生整洁；活动结束后，应当及时清除设置的设施和废弃物。</t>
+          <t>生产经营者应当遵守限制商品过度包装的强制性标准，避免过度包装。县级以上地方人民政府市场监督管理部门和有关部门应当按照各自职责，加强对过度包装的监督管理。</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>第45条第2款</t>
+          <t>第105条第1款</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第19条第2款规定，未经依法批准举办活动或者经依法批准举办活动后影响市容和环境卫生的，由市容环境卫生行政主管部门对个人处二十元以上二百元以下罚款，对单位处五百元以上一千元以下罚款。</t>
+          <t>违反本法规定，生产经营者未遵守限制商品过度包装的强制性标准的，由县级以上地方人民政府市场监督管理部门或者有关部门责令改正；拒不改正的，处二千元以上二万元以下的罚款；情节严重的，处二万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>第45条第2款</t>
+          <t>第105条第1款</t>
         </is>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第19条第2款规定，未经依法批准举办活动或者经依法批准举办活动后影响市容和环境卫生的，由市容环境卫生行政主管部门对个人处二十元以上二百元以下罚款，对单位处五百元以上一千元以下罚款。</t>
+          <t>违反本法规定，生产经营者未遵守限制商品过度包装的强制性标准的，由县级以上地方人民政府市场监督管理部门或者有关部门责令改正；拒不改正的，处二千元以上二万元以下的罚款；情节严重的，处二万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl24</t>
+          <t>zhrmghggtfwwrhjfzf24</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>非机动车辆所有人或者使用人停放非机动车辆超出停放线</t>
+          <t>未遵守国家有关禁止、限制使用不可降解塑料袋等一次性塑料制品的规定</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>应当在停放线内</t>
+          <t>禁止、限制使用</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>第20条第1款</t>
+          <t>第69条第1款</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>在城市道路和公共场所停车位停放机动车辆、非机动车辆的，应当在停放线内有序停放。</t>
+          <t>国家依法禁止、限制生产、销售和使用不可降解塑料袋等一次性塑料制品。</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>第46条第1款</t>
+          <t>第106条第1款</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第1款规定，停放非机动车辆超出停放线或者无序停放的，由市容环境卫生行政主管部门责令改正，并可对非机动车辆所有人或者使用人处二十元以下罚款。</t>
+          <t>违反本法规定，未遵守国家有关禁止、限制使用不可降解塑料袋等一次性塑料制品的规定，或者未按照国家有关规定报告塑料袋等一次性塑料制品的使用情况的，由县级以上地方人民政府商务、邮政等主管部门责令改正，处一万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>第46条第1款</t>
+          <t>第106条第1款</t>
         </is>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第1款规定，停放非机动车辆超出停放线或者无序停放的，由市容环境卫生行政主管部门责令改正，并可对非机动车辆所有人或者使用人处二十元以下罚款。</t>
+          <t>违反本法规定，未遵守国家有关禁止、限制使用不可降解塑料袋等一次性塑料制品的规定，或者未按照国家有关规定报告塑料袋等一次性塑料制品的使用情况的，由县级以上地方人民政府商务、邮政等主管部门责令改正，处一万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl25</t>
+          <t>zhrmghggtfwwrhjfzf25</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>非机动车辆所有人或者使用人停放非机动车辆无序停放</t>
+          <t>未按照国家有关规定报告塑料袋等一次性塑料制品的使用情况</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>应当有序停放</t>
+          <t>禁止、限制使用</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>第20条第1款</t>
+          <t>第69条第1款</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>在城市道路和公共场所停车位停放机动车辆、非机动车辆的，应当在停放线内有序停放。</t>
+          <t>国家依法禁止、限制生产、销售和使用不可降解塑料袋等一次性塑料制品。</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>第46条第1款</t>
+          <t>第106条第1款</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第1款规定，停放非机动车辆超出停放线或者无序停放的，由市容环境卫生行政主管部门责令改正，并可对非机动车辆所有人或者使用人处二十元以下罚款。</t>
+          <t>违反本法规定，未遵守国家有关禁止、限制使用不可降解塑料袋等一次性塑料制品的规定，或者未按照国家有关规定报告塑料袋等一次性塑料制品的使用情况的，由县级以上地方人民政府商务、邮政等主管部门责令改正，处一万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>第46条第1款</t>
+          <t>第106条第1款</t>
         </is>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第1款规定，停放非机动车辆超出停放线或者无序停放的，由市容环境卫生行政主管部门责令改正，并可对非机动车辆所有人或者使用人处二十元以下罚款。</t>
+          <t>违反本法规定，未遵守国家有关禁止、限制使用不可降解塑料袋等一次性塑料制品的规定，或者未按照国家有关规定报告塑料袋等一次性塑料制品的使用情况的，由县级以上地方人民政府商务、邮政等主管部门责令改正，处一万元以上十万元以下的罚款。</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl26</t>
+          <t>zhrmghggtfwwrhjfzf26</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人擅自在城市道路和公共场所划定停车位</t>
+          <t>从事畜禽规模养殖未及时收集、贮存、利用或者处置养殖过程中产生的畜禽粪污等固体废物</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>不得擅自划定</t>
+          <t>应当及时收集、贮存</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>第20条第2款</t>
+          <t>第65条第2款</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>收费车位由管理者进行管理和维护。任何单位和个人不得擅自在城市道路和公共场所划定停车位或者设置地锁等装置。</t>
+          <t>从事畜禽规模养殖应当及时收集、贮存、利用或者处置养殖过程中产生的畜禽粪污等固体废物，避免造成环境污染。</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>第46条第2款</t>
+          <t>第107条第1款</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第2款规定，擅自划定停车位或者设置地锁等装置的，由市容环境卫生行政主管部门责令行为人限期改正，并可处一百元以上一千元以下罚款。</t>
+          <t>从事畜禽规模养殖未及时收集、贮存、利用或者处置养殖过程中产生的畜禽粪污等固体废物的，由生态环境主管部门责令改正，可以处十万元以下的罚款；情节严重的，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>第46条第2款</t>
+          <t>第107条第1款</t>
         </is>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第2款规定，擅自划定停车位或者设置地锁等装置的，由市容环境卫生行政主管部门责令行为人限期改正，并可处一百元以上一千元以下罚款。</t>
+          <t>从事畜禽规模养殖未及时收集、贮存、利用或者处置养殖过程中产生的畜禽粪污等固体废物的，由生态环境主管部门责令改正，可以处十万元以下的罚款；情节严重的，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl27</t>
+          <t>zhrmghggtfwwrhjfzf27</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人擅自在城市道路和公共场所设置地锁等装置</t>
+          <t>城镇污水处理设施维护运营单位或者污泥处理单位对污泥流向、用途、用量等未进行跟踪、记录</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>不得擅自设置</t>
+          <t>应当进行跟踪、记录</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>第20条第2款</t>
+          <t>第71条第1款</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>收费车位由管理者进行管理和维护。任何单位和个人不得擅自在城市道路和公共场所划定停车位或者设置地锁等装置。</t>
+          <t>城镇污水处理设施维护运营单位或者污泥处理单位应当安全处理污泥，保证处理后的污泥符合国家有关标准，对污泥的流向、用途、用量等进行跟踪、记录，并报告城镇排水主管部门、生态环境主管部门。</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>第46条第2款</t>
+          <t>第108条第1款</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第2款规定，擅自划定停车位或者设置地锁等装置的，由市容环境卫生行政主管部门责令行为人限期改正，并可处一百元以上一千元以下罚款。</t>
+          <t>违反本法规定，城镇污水处理设施维护运营单位或者污泥处理单位对污泥流向、用途、用量等未进行跟踪、记录，或者处理后的污泥不符合国家有关标准的，由城镇排水主管部门责令改正，给予警告；造成严重后果的，处十万元以上二十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>第46条第2款</t>
+          <t>第108条第1款</t>
         </is>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第2款规定，擅自划定停车位或者设置地锁等装置的，由市容环境卫生行政主管部门责令行为人限期改正，并可处一百元以上一千元以下罚款。</t>
+          <t>违反本法规定，城镇污水处理设施维护运营单位或者污泥处理单位对污泥流向、用途、用量等未进行跟踪、记录，或者处理后的污泥不符合国家有关标准的，由城镇排水主管部门责令改正，给予警告；造成严重后果的，处十万元以上二十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl28</t>
+          <t>zhrmghggtfwwrhjfzf28</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>无序停放公共租赁自行车或者共享自行车，使用人在现场</t>
+          <t>城镇污水处理设施维护运营单位或者污泥处理单位处理后的污泥不符合国家有关标准</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>应当有序停放</t>
+          <t>应当保证符合标准</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>第20条第3款</t>
+          <t>第71条第1款</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>公共租赁自行车或者共享自行车应当有序停放，不得妨碍市容。</t>
+          <t>城镇污水处理设施维护运营单位或者污泥处理单位应当安全处理污泥，保证处理后的污泥符合国家有关标准，对污泥的流向、用途、用量等进行跟踪、记录，并报告城镇排水主管部门、生态环境主管部门。</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>第46条第3款</t>
+          <t>第108条第1款</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第3款规定，无序停放公共租赁自行车或者共享自行车的，使用人在现场的，由市容环境卫生行政主管部门责令改正；拒不改正的，对使用人处二十元以下罚款。经营公共租赁自行车或者共享自行车妨碍市容的，由市容环境卫生行政主管部门责令经营者限期改正；逾期不改正的，处一千元以上一万元以下罚款。</t>
+          <t>违反本法规定，城镇污水处理设施维护运营单位或者污泥处理单位对污泥流向、用途、用量等未进行跟踪、记录，或者处理后的污泥不符合国家有关标准的，由城镇排水主管部门责令改正，给予警告；造成严重后果的，处十万元以上二十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>第46条第3款</t>
+          <t>第108条第1款</t>
         </is>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第3款规定，无序停放公共租赁自行车或者共享自行车的，使用人在现场的，由市容环境卫生行政主管部门责令改正；拒不改正的，对使用人处二十元以下罚款。经营公共租赁自行车或者共享自行车妨碍市容的，由市容环境卫生行政主管部门责令经营者限期改正；逾期不改正的，处一千元以上一万元以下罚款。</t>
+          <t>违反本法规定，城镇污水处理设施维护运营单位或者污泥处理单位对污泥流向、用途、用量等未进行跟踪、记录，或者处理后的污泥不符合国家有关标准的，由城镇排水主管部门责令改正，给予警告；造成严重后果的，处十万元以上二十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl29</t>
+          <t>zhrmghggtfwwrhjfzf29</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>经营公共租赁自行车或者共享自行车妨碍市容</t>
+          <t>擅自倾倒城镇污水处理设施产生的污泥和处理后的污泥</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>应当有序停放</t>
+          <t>禁止擅自倾倒</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>第20条第3款</t>
+          <t>第72条第1款</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>公共租赁自行车或者共享自行车应当有序停放，不得妨碍市容。</t>
+          <t>禁止擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥。</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>第46条第3款</t>
+          <t>第108条第2款</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第3款规定，无序停放公共租赁自行车或者共享自行车的，使用人在现场的，由市容环境卫生行政主管部门责令改正；拒不改正的，对使用人处二十元以下罚款。经营公共租赁自行车或者共享自行车妨碍市容的，由市容环境卫生行政主管部门责令经营者限期改正；逾期不改正的，处一千元以上一万元以下罚款。</t>
+          <t>违反本法规定，擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥的，由城镇排水主管部门责令改正，处二十万元以上二百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处二万元以上十万元以下的罚款；造成严重后果的，处二百万元以上五百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处五万元以上五十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>第46条第3款</t>
+          <t>第108条第2款</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第20条第3款规定，无序停放公共租赁自行车或者共享自行车的，使用人在现场的，由市容环境卫生行政主管部门责令改正；拒不改正的，对使用人处二十元以下罚款。经营公共租赁自行车或者共享自行车妨碍市容的，由市容环境卫生行政主管部门责令经营者限期改正；逾期不改正的，处一千元以上一万元以下罚款。</t>
+          <t>违反本法规定，擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥的，由城镇排水主管部门责令改正，处二十万元以上二百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处二万元以上十万元以下的罚款；造成严重后果的，处二百万元以上五百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处五万元以上五十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
@@ -2013,47 +2012,47 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl30</t>
+          <t>zhrmghggtfwwrhjfzf30</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>在城市主要街道和重点区域建(构)筑物屋顶设置户外广告</t>
+          <t>擅自堆放城镇污水处理设施产生的污泥和处理后的污泥</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>不得设置户外广告</t>
+          <t>禁止擅自堆放</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>第22条第1款</t>
+          <t>第72条第1款</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>在城市主要街道和重点区域建(构)筑物屋顶不得设置户外广告。</t>
+          <t>禁止擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥。</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>第47条第1款</t>
+          <t>第108条第2款</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第22条规定，在城市主要街道和重点区域建(构)筑物屋顶设置户外广告的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处五百元以上五千元以下罚款。</t>
+          <t>违反本法规定，擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥的，由城镇排水主管部门责令改正，处二十万元以上二百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处二万元以上十万元以下的罚款；造成严重后果的，处二百万元以上五百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处五万元以上五十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>第47条第1款</t>
+          <t>第108条第2款</t>
         </is>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第22条规定，在城市主要街道和重点区域建(构)筑物屋顶设置户外广告的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处五百元以上五千元以下罚款。</t>
+          <t>违反本法规定，擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥的，由城镇排水主管部门责令改正，处二十万元以上二百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处二万元以上十万元以下的罚款；造成严重后果的，处二百万元以上五百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处五万元以上五十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
@@ -2065,47 +2064,47 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl31</t>
+          <t>zhrmghggtfwwrhjfzf31</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>户外广告设置不符合设置专项规划和技术规范</t>
+          <t>擅自丢弃城镇污水处理设施产生的污泥和处理后的污泥</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>应当符合专项规划</t>
+          <t>禁止擅自丢弃</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>第23条第1款</t>
+          <t>第72条第1款</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>户外广告设置应当符合户外广告设置专项规划和技术规范的要求，与周围景观环境相协调。</t>
+          <t>禁止擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥。</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>第48条第1款</t>
+          <t>第108条第2款</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第23条第1款规定，户外广告设置不符合设置专项规划和技术规范的，由市容环境卫生行政主管部门责令其停止违法行为，限期清理、拆除或者采取其他补救措施，并可处五百元以上二千元以下罚款。</t>
+          <t>违反本法规定，擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥的，由城镇排水主管部门责令改正，处二十万元以上二百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处二万元以上十万元以下的罚款；造成严重后果的，处二百万元以上五百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处五万元以上五十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>第48条第1款</t>
+          <t>第108条第2款</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第23条第1款规定，户外广告设置不符合设置专项规划和技术规范的，由市容环境卫生行政主管部门责令其停止违法行为，限期清理、拆除或者采取其他补救措施，并可处五百元以上二千元以下罚款。</t>
+          <t>违反本法规定，擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥的，由城镇排水主管部门责令改正，处二十万元以上二百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处二万元以上十万元以下的罚款；造成严重后果的，处二百万元以上五百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处五万元以上五十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
@@ -2117,151 +2116,151 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl32</t>
+          <t>zhrmghggtfwwrhjfzf32</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>户外广告设置业主对存在安全隐患、过期的户外广告设施不及时拆除</t>
+          <t>擅自遗撒城镇污水处理设施产生的污泥和处理后的污泥</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>应当及时拆除</t>
+          <t>禁止擅自遗撒</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>第23条第2款</t>
+          <t>第72条第1款</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>户外广告设置业主应当及时拆除存在安全隐患、过期的户外广告设施，及时修复陈旧、污损、残缺和灯光显示不全等影响市容的户外广告设施。</t>
+          <t>禁止擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥。</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>第48条第2款</t>
+          <t>第108条第2款</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第23条第2款规定，对存在安全隐患、过期的户外广告设施不及时拆除，对陈旧、污损、残缺和灯光显示不全等影响市容的户外广告设施不及时修复的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处五百元以上二千元以下罚款。</t>
+          <t>违反本法规定，擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥的，由城镇排水主管部门责令改正，处二十万元以上二百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处二万元以上十万元以下的罚款；造成严重后果的，处二百万元以上五百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处五万元以上五十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>第48条第2款</t>
+          <t>第108条第2款</t>
         </is>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第23条第2款规定，对存在安全隐患、过期的户外广告设施不及时拆除，对陈旧、污损、残缺和灯光显示不全等影响市容的户外广告设施不及时修复的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处五百元以上二千元以下罚款。</t>
+          <t>违反本法规定，擅自倾倒、堆放、丢弃、遗撒城镇污水处理设施产生的污泥和处理后的污泥的，由城镇排水主管部门责令改正，处二十万元以上二百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处二万元以上十万元以下的罚款；造成严重后果的，处二百万元以上五百万元以下的罚款，对直接负责的主管人员和其他直接责任人员处五万元以上五十万元以下的罚款；拒不改正的，城镇排水主管部门可以指定有治理能力的单位代为治理，所需费用由违法者承担。</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>不</t>
+          <t>乱</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl33</t>
+          <t>zhrmghggtfwwrhjfzf33</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>户外广告设置业主对陈旧、污损、残缺和灯光显示不全等影响市容的户外广告设施不及时修复</t>
+          <t>生产淘汰的设备</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>应当及时修复</t>
+          <t>停止生产设备</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>第23条第2款</t>
+          <t>第33条第2款</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>户外广告设置业主应当及时拆除存在安全隐患、过期的户外广告设施，及时修复陈旧、污损、残缺和灯光显示不全等影响市容的户外广告设施。</t>
+          <t>生产者、销售者、进口者、使用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内分别停止生产、销售、进口或者使用列入第33条第1款规定名录中的设备。生产工艺的采用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内停止采用列入第33条第1款规定名录中的工艺。</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>第48条第2款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第23条第2款规定，对存在安全隐患、过期的户外广告设施不及时拆除，对陈旧、污损、残缺和灯光显示不全等影响市容的户外广告设施不及时修复的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处五百元以上二千元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>第48条第2款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第23条第2款规定，对存在安全隐患、过期的户外广告设施不及时拆除，对陈旧、污损、残缺和灯光显示不全等影响市容的户外广告设施不及时修复的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处五百元以上二千元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>不</t>
+          <t>乱</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl34</t>
+          <t>zhrmghggtfwwrhjfzf34</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>在建(构)筑物以及建筑用地地界线范围内设置招牌改变或者影响建筑物立面风貌</t>
+          <t>销售淘汰的设备</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>不得改变立面风貌</t>
+          <t>停止销售设备</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>第24条第2款</t>
+          <t>第33条第2款</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>在建(构)筑物以及建筑用地地界线范围内设置招牌的，应当整洁、美观，不得改变或者影响建筑物立面的风貌。</t>
+          <t>生产者、销售者、进口者、使用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内分别停止生产、销售、进口或者使用列入第33条第1款规定名录中的设备。生产工艺的采用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内停止采用列入第33条第1款规定名录中的工艺。</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>第49条第1款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第24条第2款规定,在建(构)筑物以及建筑用地地界线范围内设置招牌改变或者影响建筑物立面风貌的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处一百元以上五百元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>第49条第1款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第24条第2款规定,在建(构)筑物以及建筑用地地界线范围内设置招牌改变或者影响建筑物立面风貌的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处一百元以上五百元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
@@ -2273,151 +2272,151 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl35</t>
+          <t>zhrmghggtfwwrhjfzf35</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>设置人对外型污损、字体残缺、灯光显示不完整等影响市容的招牌不及时维修或者更换</t>
+          <t>进口淘汰的设备</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>应当及时维修或者更换</t>
+          <t>停止进口设备</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>第24条第3款</t>
+          <t>第33条第2款</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>设置人应当加强日常管理，保持招牌的外型美观、安全牢固和功能完好，对外型污损、字体残缺、灯光显示不完整等影响市容的及时维修或者更换，对存在安全隐患、过期的及时拆除。</t>
+          <t>生产者、销售者、进口者、使用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内分别停止生产、销售、进口或者使用列入第33条第1款规定名录中的设备。生产工艺的采用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内停止采用列入第33条第1款规定名录中的工艺。</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>第49条第2款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第24条第3款规定,对外型污损、字体残缺、灯光显示不完整等影响市容的招牌不及时维修或者更换，对存在安全隐患、过期的招牌不及时拆除的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处一百元以上五百元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>第49条第2款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第24条第3款规定,对外型污损、字体残缺、灯光显示不完整等影响市容的招牌不及时维修或者更换，对存在安全隐患、过期的招牌不及时拆除的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处一百元以上五百元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>不</t>
+          <t>乱</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl36</t>
+          <t>zhrmghggtfwwrhjfzf36</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>设置人对存在安全隐患、过期的招牌不及时拆除</t>
+          <t>使用淘汰的设备</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>应当及时拆除</t>
+          <t>停止使用设备</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>第24条第3款</t>
+          <t>第33条第2款</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>设置人应当加强日常管理，保持招牌的外型美观、安全牢固和功能完好，对外型污损、字体残缺、灯光显示不完整等影响市容的及时维修或者更换，对存在安全隐患、过期的及时拆除。</t>
+          <t>生产者、销售者、进口者、使用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内分别停止生产、销售、进口或者使用列入第33条第1款规定名录中的设备。生产工艺的采用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内停止采用列入第33条第1款规定名录中的工艺。</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>第49条第2款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第24条第3款规定,对外型污损、字体残缺、灯光显示不完整等影响市容的招牌不及时维修或者更换，对存在安全隐患、过期的招牌不及时拆除的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处一百元以上五百元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>第49条第2款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第24条第3款规定,对外型污损、字体残缺、灯光显示不完整等影响市容的招牌不及时维修或者更换，对存在安全隐患、过期的招牌不及时拆除的，由市容环境卫生行政主管部门责令其限期清理、拆除或者采取其他补救措施，并可处一百元以上五百元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>不</t>
+          <t>乱</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl37</t>
+          <t>zhrmghggtfwwrhjfzf37</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人在树木、地面、电线杆、建(构)筑物或者其他设施上任意发布广告</t>
+          <t>采用淘汰的生产工艺</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>不得任意发布广告</t>
+          <t>停止采用工艺</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>第25条第1款</t>
+          <t>第33条第2款</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人不得在树木、地面、电线杆、建(构)筑物或者其他设施上任意发布广告，不得擅自在城市道路、公共场所等区域散发宣传材料或者悬挂条幅、张贴标语等。</t>
+          <t>生产者、销售者、进口者、使用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内分别停止生产、销售、进口或者使用列入第33条第1款规定名录中的设备。生产工艺的采用者应当在国务院工业和信息化主管部门会同国务院有关部门规定的期限内停止采用列入第33条第1款规定名录中的工艺。</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>第50条第1款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第25条第1款规定，任意发布广告，擅自散发宣传资料、悬挂条幅、张贴标语的，由市容环境卫生行政主管部门责令改正，采取补救措施，并可对个人处五十元以上五百元以下罚款，对单位处五百元以上五千元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>第50条第1款</t>
+          <t>第109条第1款</t>
         </is>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第25条第1款规定，任意发布广告，擅自散发宣传资料、悬挂条幅、张贴标语的，由市容环境卫生行政主管部门责令改正，采取补救措施，并可对个人处五十元以上五百元以下罚款，对单位处五百元以上五千元以下罚款。</t>
+          <t>违反本法规定，生产、销售、进口或者使用淘汰的设备，或者采用淘汰的生产工艺的，由县级以上地方人民政府指定的部门责令改正，处十万元以上一百万元以下的罚款，没收违法所得；情节严重的，由县级以上地方人民政府指定的部门提出意见，报经有批准权的人民政府批准，责令停业或者关闭。</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
@@ -2429,99 +2428,99 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl38</t>
+          <t>zhrmghggtfwwrhjfzf38</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人擅自在城市道路、公共场所等区域散发宣传材料</t>
+          <t>矿山企业未按照国家有关环境保护规定对停止使用的尾矿、煤矸石、废石等矿业固体废物贮存设施进行封场</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>不得擅自散发宣传材料</t>
+          <t>应当按照规定进行封场</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>第25条第1款</t>
+          <t>第42条第3款</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人不得在树木、地面、电线杆、建(构)筑物或者其他设施上任意发布广告，不得擅自在城市道路、公共场所等区域散发宣传材料或者悬挂条幅、张贴标语等。</t>
+          <t>尾矿、煤矸石、废石等矿业固体废物贮存设施停止使用后，矿山企业应当按照国家有关环境保护等规定进行封场，防止造成环境污染和生态破坏。</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>第50条第1款</t>
+          <t>第110条第1款</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第25条第1款规定，任意发布广告，擅自散发宣传资料、悬挂条幅、张贴标语的，由市容环境卫生行政主管部门责令改正，采取补救措施，并可对个人处五十元以上五百元以下罚款，对单位处五百元以上五千元以下罚款。</t>
+          <t>尾矿、煤矸石、废石等矿业固体废物贮存设施停止使用后，未按照国家有关环境保护规定进行封场的，由生态环境主管部门责令改正，处二十万元以上一百万元以下的罚款。</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>第50条第1款</t>
+          <t>第110条第1款</t>
         </is>
       </c>
       <c r="I39" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第25条第1款规定，任意发布广告，擅自散发宣传资料、悬挂条幅、张贴标语的，由市容环境卫生行政主管部门责令改正，采取补救措施，并可对个人处五十元以上五百元以下罚款，对单位处五百元以上五千元以下罚款。</t>
+          <t>尾矿、煤矸石、废石等矿业固体废物贮存设施停止使用后，未按照国家有关环境保护规定进行封场的，由生态环境主管部门责令改正，处二十万元以上一百万元以下的罚款。</t>
         </is>
       </c>
       <c r="J39" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl39</t>
+          <t>zhrmghggtfwwrhjfzf39</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人擅自在城市道路、公共场所等区域悬挂条幅、张贴标语</t>
+          <t>随意倾倒生活垃圾</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>不得擅自悬挂条幅、张贴标语</t>
+          <t>禁止随意倾倒</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>第25条第1款</t>
+          <t>第49条第2款</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>任何单位和个人不得在树木、地面、电线杆、建(构)筑物或者其他设施上任意发布广告，不得擅自在城市道路、公共场所等区域散发宣传材料或者悬挂条幅、张贴标语等。</t>
+          <t>任何单位和个人都应当依法在指定的地点分类投放生活垃圾。禁止随意倾倒、抛撒、堆放或者焚烧生活垃圾。</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>第50条第1款</t>
+          <t>第111条第1款第1项</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第25条第1款规定，任意发布广告，擅自散发宣传资料、悬挂条幅、张贴标语的，由市容环境卫生行政主管部门责令改正，采取补救措施，并可对个人处五十元以上五百元以下罚款，对单位处五百元以上五千元以下罚款。</t>
+          <t>随意倾倒、抛撒、堆放或者焚烧生活垃圾的；</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>第50条第1款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第25条第1款规定，任意发布广告，擅自散发宣传资料、悬挂条幅、张贴标语的，由市容环境卫生行政主管部门责令改正，采取补救措施，并可对个人处五十元以上五百元以下罚款，对单位处五百元以上五千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J40" s="1" t="inlineStr">
@@ -2533,47 +2532,47 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl40</t>
+          <t>zhrmghggtfwwrhjfzf40</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>乘车人从机动车内向外抛撒纸钱、鞭炮、垃圾等物品</t>
+          <t>随意抛撒生活垃圾</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>抛撒纸钱、鞭炮</t>
+          <t>禁止随意抛撒</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第1项</t>
+          <t>第49条第2款</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>从机动车内向外抛撒纸钱、鞭炮、垃圾等物品；</t>
+          <t>任何单位和个人都应当依法在指定的地点分类投放生活垃圾。禁止随意倾倒、抛撒、堆放或者焚烧生活垃圾。</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>第51条第1款</t>
+          <t>第111条第1款第1项</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第1项规定，从机动车内向外抛撒纸钱、鞭炮、垃圾等物品的，由公安机关交通管理部门对乘车人处二十元罚款。</t>
+          <t>随意倾倒、抛撒、堆放或者焚烧生活垃圾的；</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>第51条第1款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I41" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第1项规定，从机动车内向外抛撒纸钱、鞭炮、垃圾等物品的，由公安机关交通管理部门对乘车人处二十元罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J41" s="1" t="inlineStr">
@@ -2585,47 +2584,47 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl41</t>
+          <t>zhrmghggtfwwrhjfzf41</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>在城市道路、公共场所、绿地和垃圾收集器内焚烧各种废弃物或者冥器、冥钞</t>
+          <t>随意堆放生活垃圾</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>焚烧各种废弃物</t>
+          <t>禁止随意堆放</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第2项</t>
+          <t>第49条第2款</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>在城市道路、公共场所、绿地和垃圾收集器内焚烧各种废弃物或者冥器、冥钞，在公共场所烧烤食品；</t>
+          <t>任何单位和个人都应当依法在指定的地点分类投放生活垃圾。禁止随意倾倒、抛撒、堆放或者焚烧生活垃圾。</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>第51条第2款</t>
+          <t>第111条第1款第1项</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第2项规定，在城市道路、公共场所、绿地和垃圾收集器内焚烧各种废弃物或者冥器、冥钞的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款；在公共场所烧烤食品的，由市容环境卫生行政主管部门责令改正，没收烧烤工具和违法所得，并处五百元以上二万元以下罚款。</t>
+          <t>随意倾倒、抛撒、堆放或者焚烧生活垃圾的；</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>第51条第2款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I42" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第2项规定，在城市道路、公共场所、绿地和垃圾收集器内焚烧各种废弃物或者冥器、冥钞的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款；在公共场所烧烤食品的，由市容环境卫生行政主管部门责令改正，没收烧烤工具和违法所得，并处五百元以上二万元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J42" s="1" t="inlineStr">
@@ -2637,47 +2636,47 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl42</t>
+          <t>zhrmghggtfwwrhjfzf42</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>在公共场所烧烤食品</t>
+          <t>随意焚烧生活垃圾</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>在公共场所烧烤</t>
+          <t>禁止随意焚烧</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第2项</t>
+          <t>第49条第2款</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>在城市道路、公共场所、绿地和垃圾收集器内焚烧各种废弃物或者冥器、冥钞，在公共场所烧烤食品；</t>
+          <t>任何单位和个人都应当依法在指定的地点分类投放生活垃圾。禁止随意倾倒、抛撒、堆放或者焚烧生活垃圾。</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>第51条第2款</t>
+          <t>第111条第1款第1项</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第2项规定，在城市道路、公共场所、绿地和垃圾收集器内焚烧各种废弃物或者冥器、冥钞的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款；在公共场所烧烤食品的，由市容环境卫生行政主管部门责令改正，没收烧烤工具和违法所得，并处五百元以上二万元以下罚款。</t>
+          <t>随意倾倒、抛撒、堆放或者焚烧生活垃圾的；</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>第51条第2款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第2项规定，在城市道路、公共场所、绿地和垃圾收集器内焚烧各种废弃物或者冥器、冥钞的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款；在公共场所烧烤食品的，由市容环境卫生行政主管部门责令改正，没收烧烤工具和违法所得，并处五百元以上二万元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J43" s="1" t="inlineStr">
@@ -2689,47 +2688,47 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl43</t>
+          <t>zhrmghggtfwwrhjfzf43</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>在街道上从事家禽家畜屠宰、肉类和水产品加工等活动</t>
+          <t>擅自关闭生活垃圾处理设施、场所</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>在街道上从事</t>
+          <t>禁止擅自关闭</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第3项</t>
+          <t>第55条第3款</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>在街道上从事家禽家畜屠宰、肉类和水产品加工等活动；</t>
+          <t>禁止擅自关闭、闲置或者拆除生活垃圾处理设施、场所；确有必要关闭、闲置或者拆除的，应当经所在地的市、县级人民政府环境卫生主管部门商所在地生态环境主管部门同意后核准，并采取防止污染环境的措施。</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>第51条第3款</t>
+          <t>第111条第1款第2项</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第3项、第1款第4项、第1款第5项、第1款第6项规定，在街道上从事家禽家畜屠宰、肉类和水产品加工等活动，将生活垃圾丢进下水道和厕所管道，在道路两旁遗留污泥、枝叶，在公共区域丢弃、堆放大件垃圾的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款。</t>
+          <t>擅自关闭、闲置或者拆除生活垃圾处理设施、场所的；</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>第51条第3款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I44" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第3项、第1款第4项、第1款第5项、第1款第6项规定，在街道上从事家禽家畜屠宰、肉类和水产品加工等活动，将生活垃圾丢进下水道和厕所管道，在道路两旁遗留污泥、枝叶，在公共区域丢弃、堆放大件垃圾的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J44" s="1" t="inlineStr">
@@ -2741,47 +2740,47 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl44</t>
+          <t>zhrmghggtfwwrhjfzf44</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>将生活垃圾丢进下水道和厕所管道</t>
+          <t>擅自闲置生活垃圾处理设施、场所</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>将生活垃圾丢进</t>
+          <t>禁止擅自闲置</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第4项</t>
+          <t>第55条第3款</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>将生活垃圾丢进下水道和厕所管道；</t>
+          <t>禁止擅自关闭、闲置或者拆除生活垃圾处理设施、场所；确有必要关闭、闲置或者拆除的，应当经所在地的市、县级人民政府环境卫生主管部门商所在地生态环境主管部门同意后核准，并采取防止污染环境的措施。</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>第51条第3款</t>
+          <t>第111条第1款第2项</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第3项、第1款第4项、第1款第5项、第1款第6项规定，在街道上从事家禽家畜屠宰、肉类和水产品加工等活动，将生活垃圾丢进下水道和厕所管道，在道路两旁遗留污泥、枝叶，在公共区域丢弃、堆放大件垃圾的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款。</t>
+          <t>擅自关闭、闲置或者拆除生活垃圾处理设施、场所的；</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>第51条第3款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I45" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第3项、第1款第4项、第1款第5项、第1款第6项规定，在街道上从事家禽家畜屠宰、肉类和水产品加工等活动，将生活垃圾丢进下水道和厕所管道，在道路两旁遗留污泥、枝叶，在公共区域丢弃、堆放大件垃圾的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J45" s="1" t="inlineStr">
@@ -2793,47 +2792,47 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl45</t>
+          <t>zhrmghggtfwwrhjfzf45</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>在城市道路两旁遗留清掏出的下水道污泥、修剪产生的植物枝叶</t>
+          <t>擅自拆除生活垃圾处理设施、场所</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>在城市道路两旁遗留</t>
+          <t>禁止擅自拆除</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第5项</t>
+          <t>第55条第3款</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>在城市道路两旁遗留清掏出的下水道污泥、修剪产生的植物枝叶；</t>
+          <t>禁止擅自关闭、闲置或者拆除生活垃圾处理设施、场所；确有必要关闭、闲置或者拆除的，应当经所在地的市、县级人民政府环境卫生主管部门商所在地生态环境主管部门同意后核准，并采取防止污染环境的措施。</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>第51条第3款</t>
+          <t>第111条第1款第2项</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第3项、第1款第4项、第1款第5项、第1款第6项规定，在街道上从事家禽家畜屠宰、肉类和水产品加工等活动，将生活垃圾丢进下水道和厕所管道，在道路两旁遗留污泥、枝叶，在公共区域丢弃、堆放大件垃圾的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款。</t>
+          <t>擅自关闭、闲置或者拆除生活垃圾处理设施、场所的；</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>第51条第3款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第3项、第1款第4项、第1款第5项、第1款第6项规定，在街道上从事家禽家畜屠宰、肉类和水产品加工等活动，将生活垃圾丢进下水道和厕所管道，在道路两旁遗留污泥、枝叶，在公共区域丢弃、堆放大件垃圾的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J46" s="1" t="inlineStr">
@@ -2845,151 +2844,151 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl46</t>
+          <t>zhrmghggtfwwrhjfzf46</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>在城市道路、居住区等公共区域内丢弃、堆放大件垃圾</t>
+          <t>工程施工单位未编制建筑垃圾处理方案报备案</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>在城市道路、居住区等</t>
+          <t>应当及时清运</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第6项</t>
+          <t>第63条第2款</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>在城市道路、居住区等公共区域内丢弃、堆放大件垃圾；</t>
+          <t>工程施工单位应当及时清运工程施工过程中产生的建筑垃圾等固体废物，并按照环境卫生主管部门的规定进行利用或者处置。</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>第51条第3款</t>
+          <t>第111条第1款第3项</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第3项、第1款第4项、第1款第5项、第1款第6项规定，在街道上从事家禽家畜屠宰、肉类和水产品加工等活动，将生活垃圾丢进下水道和厕所管道，在道路两旁遗留污泥、枝叶，在公共区域丢弃、堆放大件垃圾的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款。</t>
+          <t>工程施工单位未编制建筑垃圾处理方案报备案，或者未及时清运施工过程中产生的固体废物的；</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>第51条第3款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第3项、第1款第4项、第1款第5项、第1款第6项规定，在街道上从事家禽家畜屠宰、肉类和水产品加工等活动，将生活垃圾丢进下水道和厕所管道，在道路两旁遗留污泥、枝叶，在公共区域丢弃、堆放大件垃圾的，由市容环境卫生行政主管部门责令改正，处五十元以上五百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J47" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl47</t>
+          <t>zhrmghggtfwwrhjfzf47</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>在城市道路上堆放建筑材料、谷物以及其他杂物</t>
+          <t>工程施工单位未及时清运施工过程中产生的固体废物</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>堆放建筑材料</t>
+          <t>应当及时清运</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第7项</t>
+          <t>第63条第2款</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>在城市道路上堆放建筑材料、谷物以及其他杂物；</t>
+          <t>工程施工单位应当及时清运工程施工过程中产生的建筑垃圾等固体废物，并按照环境卫生主管部门的规定进行利用或者处置。</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>第51条第4款</t>
+          <t>第111条第1款第3项</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第7项、第1款第8项、第1款第9项规定，在城市道路上堆放建筑材料、谷物以及其他杂物，乱倒生活垃圾、随地吐痰、便溺等的，由市容环境卫生行政主管部门责令改正，处二十元以上二百元以下罚款。</t>
+          <t>工程施工单位未编制建筑垃圾处理方案报备案，或者未及时清运施工过程中产生的固体废物的；</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>第51条第4款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I48" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第7项、第1款第8项、第1款第9项规定，在城市道路上堆放建筑材料、谷物以及其他杂物，乱倒生活垃圾、随地吐痰、便溺等的，由市容环境卫生行政主管部门责令改正，处二十元以上二百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J48" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl48</t>
+          <t>zhrmghggtfwwrhjfzf48</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>乱倒生活垃圾，随地吐痰、便溺，乱扔瓜果皮核、烟蒂、纸屑、食品包装等废弃物</t>
+          <t>工程施工单位擅自倾倒、抛撒或者堆放工程施工过程中产生的建筑垃圾</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>乱倒生活垃圾</t>
+          <t>不得擅自倾倒</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第8项</t>
+          <t>第63条第3款</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>乱倒生活垃圾，随地吐痰、便溺，乱扔瓜果皮核、烟蒂、纸屑、食品包装等废弃物；</t>
+          <t>工程施工单位不得擅自倾倒、抛撒或者堆放工程施工过程中产生的建筑垃圾。</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>第51条第4款</t>
+          <t>第111条第1款第4项</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第7项、第1款第8项、第1款第9项规定，在城市道路上堆放建筑材料、谷物以及其他杂物，乱倒生活垃圾、随地吐痰、便溺等的，由市容环境卫生行政主管部门责令改正，处二十元以上二百元以下罚款。</t>
+          <t>工程施工单位擅自倾倒、抛撒或者堆放工程施工过程中产生的建筑垃圾，或者未按照规定对施工过程中产生的固体废物进行利用或者处置的；</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>第51条第4款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第7项、第1款第8项、第1款第9项规定，在城市道路上堆放建筑材料、谷物以及其他杂物，乱倒生活垃圾、随地吐痰、便溺等的，由市容环境卫生行政主管部门责令改正，处二十元以上二百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J49" s="1" t="inlineStr">
@@ -3001,99 +3000,99 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl49</t>
+          <t>zhrmghggtfwwrhjfzf49</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>其他影响城市环境卫生的行为</t>
+          <t>工程施工单位未按照规定对施工过程中产生的固体废物进行利用或者处置</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>影响城市环境</t>
+          <t>应当及时清运</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>第29条第1款第9项</t>
+          <t>第63条第2款</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>其他影响城市环境卫生的行为。</t>
+          <t>工程施工单位应当及时清运工程施工过程中产生的建筑垃圾等固体废物，并按照环境卫生主管部门的规定进行利用或者处置。</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>第51条第4款</t>
+          <t>第111条第1款第4项</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第7项、第1款第8项、第1款第9项规定，在城市道路上堆放建筑材料、谷物以及其他杂物，乱倒生活垃圾、随地吐痰、便溺等的，由市容环境卫生行政主管部门责令改正，处二十元以上二百元以下罚款。</t>
+          <t>工程施工单位擅自倾倒、抛撒或者堆放工程施工过程中产生的建筑垃圾，或者未按照规定对施工过程中产生的固体废物进行利用或者处置的；</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>第51条第4款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I50" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第29条第1款第7项、第1款第8项、第1款第9项规定，在城市道路上堆放建筑材料、谷物以及其他杂物，乱倒生活垃圾、随地吐痰、便溺等的，由市容环境卫生行政主管部门责令改正，处二十元以上二百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J50" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl50</t>
+          <t>zhrmghggtfwwrhjfzf50</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>宠物饲养人未及时清理宠物在城市道路和公共场所产生的粪便</t>
+          <t>产生、收集厨余垃圾的单位和其他生产经营者未将厨余垃圾交由具备相应资质条件的单位进行无害化处理</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>应当及时清除</t>
+          <t>应当将厨余垃圾交由</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>第30条第1款</t>
+          <t>第57条第2款</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>宠物在城市道路和公共场所产生粪便的，饲养人应当及时清除。</t>
+          <t>产生、收集厨余垃圾的单位和其他生产经营者，应当将厨余垃圾交由具备相应资质条件的单位进行无害化处理。</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>第52条第1款</t>
+          <t>第111条第1款第5项</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第30条规定，未及时清理宠物粪便的，由市容环境卫生行政主管部门责令改正，处二十元以上二百元以下罚款。</t>
+          <t>产生、收集厨余垃圾的单位和其他生产经营者未将厨余垃圾交由具备相应资质条件的单位进行无害化处理的；</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>第52条第1款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I51" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第30条规定，未及时清理宠物粪便的，由市容环境卫生行政主管部门责令改正，处二十元以上二百元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J51" s="1" t="inlineStr">
@@ -3105,47 +3104,47 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl51</t>
+          <t>zhrmghggtfwwrhjfzf51</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>将餐厨垃圾直接排入排水管网</t>
+          <t>畜禽养殖场、养殖小区利用未经无害化处理的厨余垃圾饲喂畜禽</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>禁止将餐厨垃圾</t>
+          <t>禁止利用未经处理</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>第32条第2款</t>
+          <t>第57条第3款</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>禁止将餐厨垃圾直接排入城镇排水管网，禁止随意倾倒、抛撒、堆放餐厨垃圾。</t>
+          <t>禁止畜禽养殖场、养殖小区利用未经无害化处理的厨余垃圾饲喂畜禽。</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>第53条第1款</t>
+          <t>第111条第1款第6项</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第32条第2款规定，将餐厨垃圾直接排入排水管网，随意倾倒、抛撒、堆放餐厨垃圾的，由市容环境卫生行政主管部门责令改正，处二百元以上二千元以下罚款。</t>
+          <t>畜禽养殖场、养殖小区利用未经无害化处理的厨余垃圾饲喂畜禽的；</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>第53条第1款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I52" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第32条第2款规定，将餐厨垃圾直接排入排水管网，随意倾倒、抛撒、堆放餐厨垃圾的，由市容环境卫生行政主管部门责令改正，处二百元以上二千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J52" s="1" t="inlineStr">
@@ -3157,47 +3156,47 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl52</t>
+          <t>zhrmghggtfwwrhjfzf52</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>随意倾倒、抛撒、堆放餐厨垃圾</t>
+          <t>在运输过程中沿途丢弃、遗撒生活垃圾</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>禁止随意倾倒</t>
+          <t>沿途丢弃、遗撒</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>第32条第2款</t>
+          <t>第111条第1款第7项</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>禁止将餐厨垃圾直接排入城镇排水管网，禁止随意倾倒、抛撒、堆放餐厨垃圾。</t>
+          <t>在运输过程中沿途丢弃、遗撒生活垃圾的。</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
         <is>
-          <t>第53条第1款</t>
+          <t>第111条第1款第7项</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第32条第2款规定，将餐厨垃圾直接排入排水管网，随意倾倒、抛撒、堆放餐厨垃圾的，由市容环境卫生行政主管部门责令改正，处二百元以上二千元以下罚款。</t>
+          <t>在运输过程中沿途丢弃、遗撒生活垃圾的。</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>第53条第1款</t>
+          <t>第111条第1款|第111条第2款</t>
         </is>
       </c>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第32条第2款规定，将餐厨垃圾直接排入排水管网，随意倾倒、抛撒、堆放餐厨垃圾的，由市容环境卫生行政主管部门责令改正，处二百元以上二千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由县级以上地方人民政府环境卫生主管部门责令改正，处以罚款，没收违法所得：|单位有第111条第1款第1项、第1款第7项行为之一，处五万元以上五十万元以下的罚款；单位有第111条第1款第2项、第1款第3项、第1款第4项、第1款第5项、第1款第6项行为之一，处十万元以上一百万元以下的罚款；个人有第111条第1款第1项、第1款第5项、第1款第7项行为之一，处一百元以上五百元以下的罚款。</t>
         </is>
       </c>
       <c r="J53" s="1" t="inlineStr">
@@ -3209,47 +3208,47 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl53</t>
+          <t>zhrmghggtfwwrhjfzf53</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>化粪池责任人未按照清掏周期的设计要求清掏化粪池，造成化粪池外溢</t>
+          <t>未在指定的地点分类投放生活垃圾</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>应当按照设计要求清掏</t>
+          <t>应当依法分类投放</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第49条第2款</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>化粪池责任人应当按照清掏周期的设计要求清掏化粪池，防止阻塞、外溢。</t>
+          <t>任何单位和个人都应当依法在指定的地点分类投放生活垃圾。禁止随意倾倒、抛撒、堆放或者焚烧生活垃圾。</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>第54条第1款</t>
+          <t>第111条第3款</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第33条规定，造成化粪池外溢的，由市容环境卫生行政主管部门或者其委托的单位责令其限期清理，并可处五百元以上五千元以下罚款。</t>
+          <t>违反本法规定，未在指定的地点分类投放生活垃圾的，由县级以上地方人民政府环境卫生主管部门责令改正；情节严重的，对单位处五万元以上五十万元以下的罚款，对个人依法处以罚款。</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>第54条第1款</t>
+          <t>第111条第3款</t>
         </is>
       </c>
       <c r="I54" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第33条规定，造成化粪池外溢的，由市容环境卫生行政主管部门或者其委托的单位责令其限期清理，并可处五百元以上五千元以下罚款。</t>
+          <t>违反本法规定，未在指定的地点分类投放生活垃圾的，由县级以上地方人民政府环境卫生主管部门责令改正；情节严重的，对单位处五万元以上五十万元以下的罚款，对个人依法处以罚款。</t>
         </is>
       </c>
       <c r="J54" s="1" t="inlineStr">
@@ -3261,99 +3260,99 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl54</t>
+          <t>zhrmghggtfwwrhjfzf54</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>运输单位未依法办理建筑垃圾处置核准文件从事建筑垃圾运输、处置</t>
+          <t>未按照规定设置危险废物识别标志</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>应当随车携带</t>
+          <t>应当设置识别标志</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>第34条第1款</t>
+          <t>第77条第1款</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>运输建筑垃圾应当随车携带建筑垃圾处置核准文件，并按照核定的路线、时间将建筑垃圾运至市容环境卫生行政主管部门确认的建筑垃圾消纳场所，不得影响市容和环境卫生。</t>
+          <t>对危险废物的容器和包装物以及收集、贮存、运输、利用、处置危险废物的设施、场所，应当按照规定设置危险废物识别标志。</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>第55条第1款第1项</t>
+          <t>第112条第1款第1项</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>未依法办理建筑垃圾处置核准文件从事建筑垃圾运输、处置的，对运输单位处二千元以上二万元以下罚款；</t>
+          <t>未按照规定设置危险废物识别标志的；</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>第55条第1款</t>
+          <t>第112条第1款|第112条第2款</t>
         </is>
       </c>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第34条规定的，由市容环境卫生行政主管部门责令改正，并按照以下规定进行处罚：</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
         </is>
       </c>
       <c r="J55" s="1" t="inlineStr">
         <is>
-          <t>乱</t>
+          <t>不</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl55</t>
+          <t>zhrmghggtfwwrhjfzf55</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>车辆驾驶员未随车携带建筑垃圾处置核准文件</t>
+          <t>产生危险废物的单位未按照国家有关规定制定危险废物管理计划</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>未随车携带</t>
+          <t>应当制定管理计划</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>第55条第1款第2项</t>
+          <t>第78条第1款</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>未随车携带建筑垃圾处置核准文件的，对车辆驾驶员处二百元以下罚款；</t>
+          <t>产生危险废物的单位，应当按照国家有关规定制定危险废物管理计划；建立危险废物管理台账，如实记录有关信息，并通过国家危险废物信息管理系统向所在地生态环境主管部门申报危险废物的种类、产生量、流向、贮存、处置等有关资料。</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>第55条第1款第2项</t>
+          <t>第112条第1款第2项</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>未随车携带建筑垃圾处置核准文件的，对车辆驾驶员处二百元以下罚款；</t>
+          <t>未按照国家有关规定制定危险废物管理计划或者申报危险废物有关资料的；</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>第55条第1款</t>
+          <t>第112条第1款|第112条第2款</t>
         </is>
       </c>
       <c r="I56" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第34条规定的，由市容环境卫生行政主管部门责令改正，并按照以下规定进行处罚：</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
         </is>
       </c>
       <c r="J56" s="1" t="inlineStr">
@@ -3365,47 +3364,47 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl56</t>
+          <t>zhrmghggtfwwrhjfzf56</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>运输单位未按照核定的路线、时间运输建筑垃圾</t>
+          <t>产生危险废物的单位未按照国家有关规定申报危险废物有关资料</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>应按照核定路线</t>
+          <t>应当申报有关资料</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>第34条第1款</t>
+          <t>第78条第1款</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>运输建筑垃圾应当随车携带建筑垃圾处置核准文件，并按照核定的路线、时间将建筑垃圾运至市容环境卫生行政主管部门确认的建筑垃圾消纳场所，不得影响市容和环境卫生。</t>
+          <t>产生危险废物的单位，应当按照国家有关规定制定危险废物管理计划；建立危险废物管理台账，如实记录有关信息，并通过国家危险废物信息管理系统向所在地生态环境主管部门申报危险废物的种类、产生量、流向、贮存、处置等有关资料。</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>第55条第1款第3项</t>
+          <t>第112条第1款第2项</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>未按照核定的路线、时间运输建筑垃圾的，对运输单位处每车次五百元以上五千元以下罚款。</t>
+          <t>未按照国家有关规定制定危险废物管理计划或者申报危险废物有关资料的；</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>第55条第1款</t>
+          <t>第112条第1款|第112条第2款</t>
         </is>
       </c>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第34条规定的，由市容环境卫生行政主管部门责令改正，并按照以下规定进行处罚：</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
         </is>
       </c>
       <c r="J57" s="1" t="inlineStr">
@@ -3417,851 +3416,1190 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>glscssrhhjwsgltl57</t>
+          <t>zhrmghggtfwwrhjfzf57</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>装载砂石、砖块、渣土、水泥、沥青、混凝土等散装物品以及液体、生活垃圾、粪便的车辆未采取密闭、覆盖措施或者车辆带泥运行，影响市容和环境卫生</t>
+          <t>擅自倾倒、堆放危险废物</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>应当采取密闭、覆盖</t>
+          <t>擅自倾倒、堆放</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>第35条第1款</t>
+          <t>第120条第1款第1项</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>装载砂石、砖块、渣土、水泥、沥青、混凝土等散装物品以及液体、生活垃圾、粪便的车辆应当采取密闭、覆盖等措施，不得泄漏、散落、飞扬或者带泥运行，影响市容和环境卫生。</t>
+          <t>擅自倾倒、堆放、丢弃、遗撒固体废物，造成严重后果的；</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>第56条第1款</t>
+          <t>第112条第1款第3项</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第35条规定，未采取密闭、覆盖措施或者车辆带泥运行，影响市容和环境卫生的，由市容环境卫生行政主管部门责令改正，处二百元以上二千元以下罚款。</t>
+          <t>擅自倾倒、堆放危险废物的；</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>第56条第1款</t>
+          <t>第112条第1款|第112条第2款</t>
         </is>
       </c>
       <c r="I58" s="1" t="inlineStr">
         <is>
-          <t>违反本条例第35条规定，未采取密闭、覆盖措施或者车辆带泥运行，影响市容和环境卫生的，由市容环境卫生行政主管部门责令改正，处二百元以上二千元以下罚款。</t>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
         </is>
       </c>
       <c r="J58" s="1" t="inlineStr">
         <is>
+          <t>乱</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf58</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>将危险废物提供或者委托给无许可证的单位或者其他生产经营者从事经营活动</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>禁止提供或委托</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>第80条第3款</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>禁止将危险废物提供或者委托给无许可证的单位或者其他生产经营者从事收集、贮存、利用、处置活动。</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第4项</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>将危险废物提供或者委托给无许可证的单位或者其他生产经营者从事经营活动的；</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I59" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J59" s="1" t="inlineStr">
+        <is>
+          <t>乱</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf59</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>未按照国家有关规定填写、运行危险废物转移联单</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>应当填写、运行</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>第82条第1款</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>转移危险废物的，应当按照国家有关规定填写、运行危险废物电子或者纸质转移联单。</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第5项</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>未按照国家有关规定填写、运行危险废物转移联单或者未经批准擅自转移危险废物的；</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I60" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="inlineStr">
+        <is>
           <t>不</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="48" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="8.4" customWidth="1" min="4" max="4"/>
-    <col width="48" customWidth="1" min="5" max="5"/>
-    <col width="8.4" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="8.4" customWidth="1" min="8" max="8"/>
-    <col width="48" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>事由</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>说明</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>违则</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>违则条款</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>行为</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>违法行为</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>罚则</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>罚则条款</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>性质</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl1</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>单位和个人未办理河道采砂许可证，擅自在长江采砂</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>应当重新办理</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>第12条第2款</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>从事长江采砂活动的单位和个人需要改变河道采砂许可证规定的事项和内容的，应当重新办理河道采砂许可证。</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>第18条第1款</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，未办理河道采砂许可证，擅自在长江采砂的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权，责令停止违法行为，没收违法开采的砂石和违法所得以及采砂船舶和挖掘机械等作业设备、工具，并处违法开采的砂石货值金额2倍以上20倍以下的罚款；货值金额不足10万元的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>第18条第1款</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，未办理河道采砂许可证，擅自在长江采砂的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权，责令停止违法行为，没收违法开采的砂石和违法所得以及采砂船舶和挖掘机械等作业设备、工具，并处违法开采的砂石货值金额2倍以上20倍以下的罚款；货值金额不足10万元的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf60</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>未经批准擅自转移危险废物</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>未经批准擅自</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>第120条第1款第5项</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>未经批准擅自转移危险废物的；</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第5项</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>未按照国家有关规定填写、运行危险废物转移联单或者未经批准擅自转移危险废物的；</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I61" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J61" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>采砂单位、个人未按照河道采砂许可证规定的要求采砂</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>应当按照规定进行开采</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>第12条第1款</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>从事长江采砂活动的单位和个人应当按照河道采砂许可证的规定进行开采。有关县级以上地方人民政府水行政主管部门和长江水利委员会应当按照职责划分对其加强监督检查。</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>第19条第1款</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，采砂单位、个人未按照河道采砂许可证规定的要求采砂的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权，责令停止违法行为，没收违法开采的砂石和违法所得，并处违法开采的砂石货值金额1倍以上2倍以下的罚款；情节严重或者在禁采区、禁采期采砂的，没收违法开采的砂石和违法所得以及采砂船舶和挖掘机械等作业设备、工具，吊销河道采砂许可证，并处违法开采的砂石货值金额2倍以上20倍以下的罚款，货值金额不足10万元的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>第19条第1款</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，采砂单位、个人未按照河道采砂许可证规定的要求采砂的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权，责令停止违法行为，没收违法开采的砂石和违法所得，并处违法开采的砂石货值金额1倍以上2倍以下的罚款；情节严重或者在禁采区、禁采期采砂的，没收违法开采的砂石和违法所得以及采砂船舶和挖掘机械等作业设备、工具，吊销河道采砂许可证，并处违法开采的砂石货值金额2倍以上20倍以下的罚款，货值金额不足10万元的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf61</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>未按照国家环境保护标准贮存、利用、处置危险废物</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>应当按照规定贮存</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>第79条第1款</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>产生危险废物的单位，应当按照国家有关规定和环境保护标准要求贮存、利用、处置危险废物，不得擅自倾倒、堆放。</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第6项</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>未按照国家环境保护标准贮存、利用、处置危险废物或者将危险废物混入非危险废物中贮存的；</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I62" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="inlineStr">
+        <is>
+          <t>不</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf62</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>将危险废物混入非危险废物中贮存</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>禁止将危险废物混入</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>第81条第2款</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>贮存危险废物应当采取符合国家环境保护标准的防护措施。禁止将危险废物混入非危险废物中贮存。</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第6项</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>未按照国家环境保护标准贮存、利用、处置危险废物或者将危险废物混入非危险废物中贮存的；</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J63" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl3</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>运输未取得河道采砂许可证的单位、个人开采的长江河道砂石</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>禁止运输</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>第17条第1款</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>禁止运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石。</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf63</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>未经安全性处置，混合收集、贮存、运输、处置具有不相容性质的危险废物</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>禁止混合收集</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>第81条第1款</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>收集、贮存危险废物，应当按照危险废物特性分类进行。禁止混合收集、贮存、运输、处置性质不相容而未经安全性处置的危险废物。</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第7项</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>未经安全性处置，混合收集、贮存、运输、处置具有不相容性质的危险废物的；</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I64" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J64" s="1" t="inlineStr">
+        <is>
+          <t>乱</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf64</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>将危险废物与旅客在同一运输工具上载运</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>禁止将危险废物</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>第83条第2款</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>禁止将危险废物与旅客在同一运输工具上载运。</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第8项</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>将危险废物与旅客在同一运输工具上载运的；</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I65" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J65" s="1" t="inlineStr">
+        <is>
+          <t>乱</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf65</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>未经消除污染处理，将收集、贮存、运输、处置危险废物的场所、设施、设备和容器、包装物及其他物品转作他用</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>应当经过消除污染处理</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>第84条第1款</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>收集、贮存、运输、利用、处置危险废物的场所、设施、设备和容器、包装物及其他物品转作他用时，应当按照国家有关规定经过消除污染处理，方可使用。</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第9项</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>未经消除污染处理，将收集、贮存、运输、处置危险废物的场所、设施、设备和容器、包装物及其他物品转作他用的；</t>
+        </is>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I66" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J66" s="1" t="inlineStr">
+        <is>
+          <t>乱</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf66</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位和其他生产经营者未采取防范措施，造成危险废物扬散、流失、渗漏或者其他环境污染</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>应当采取防扬散</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
         <is>
           <t>第20条第1款</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石的，由县级以上地方人民政府水行政主管部门、长江水利委员会、有关海事管理机构以及县级以上地方人民政府其他有关部门依据职权，责令停止违法行为，没收违法运输、收购、销售的砂石和违法所得，并处2万元以上20万元以下的罚款；情节严重的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>第20条第1款</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石的，由县级以上地方人民政府水行政主管部门、长江水利委员会、有关海事管理机构以及县级以上地方人民政府其他有关部门依据职权，责令停止违法行为，没收违法运输、收购、销售的砂石和违法所得，并处2万元以上20万元以下的罚款；情节严重的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位和其他生产经营者，应当采取防扬散、防流失、防渗漏或者其他防止污染环境的措施，不得擅自倾倒、堆放、丢弃、遗撒固体废物。</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第10项</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>未采取相应防范措施，造成危险废物扬散、流失、渗漏或者其他环境污染的；</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I67" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J67" s="1" t="inlineStr">
+        <is>
+          <t>不</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf67</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>在运输过程中沿途丢弃、遗撒危险废物</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>应当按照危险废物管理</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>第50条第2款</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>从生活垃圾中分类并集中收集的有害垃圾，属于危险废物的，应当按照危险废物管理。</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第11项</t>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>在运输过程中沿途丢弃、遗撒危险废物的；</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I68" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J68" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>收购未取得河道采砂许可证的单位、个人开采的长江河道砂石</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>禁止收购</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>第17条第1款</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>禁止运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石。</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>第20条第1款</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石的，由县级以上地方人民政府水行政主管部门、长江水利委员会、有关海事管理机构以及县级以上地方人民政府其他有关部门依据职权，责令停止违法行为，没收违法运输、收购、销售的砂石和违法所得，并处2万元以上20万元以下的罚款；情节严重的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>第20条第1款</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石的，由县级以上地方人民政府水行政主管部门、长江水利委员会、有关海事管理机构以及县级以上地方人民政府其他有关部门依据职权，责令停止违法行为，没收违法运输、收购、销售的砂石和违法所得，并处2万元以上20万元以下的罚款；情节严重的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf68</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>未制定危险废物意外事故防范措施和应急预案</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>未制定防范措施</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第12项</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>未制定危险废物意外事故防范措施和应急预案的；</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第12项</t>
+        </is>
+      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>未制定危险废物意外事故防范措施和应急预案的；</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I69" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J69" s="1" t="inlineStr">
+        <is>
+          <t>不</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf69</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>未按照国家有关规定建立危险废物管理台账并如实记录</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>应当建立管理台账</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>第78条第1款</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>产生危险废物的单位，应当按照国家有关规定制定危险废物管理计划；建立危险废物管理台账，如实记录有关信息，并通过国家危险废物信息管理系统向所在地生态环境主管部门申报危险废物的种类、产生量、流向、贮存、处置等有关资料。</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款第13项</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>未按照国家有关规定建立危险废物管理台账并如实记录的。</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>第112条第1款|第112条第2款</t>
+        </is>
+      </c>
+      <c r="I70" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，有下列行为之一，由生态环境主管部门责令改正，处以罚款，没收违法所得；情节严重的，报经有批准权的人民政府批准，可以责令停业或者关闭：|有第112条第1款第1项、第1款第2项、第1款第5项、第1款第6项、第1款第7项、第1款第8项、第1款第9项、第1款第12项、第1款第13项行为之一，处十万元以上一百万元以下的罚款；有第112条第1款第3项、第1款第4项、第1款第10项、第1款第11项行为之一，处所需处置费用三倍以上五倍以下的罚款，所需处置费用不足二十万元的，按二十万元计算。</t>
+        </is>
+      </c>
+      <c r="J70" s="1" t="inlineStr">
+        <is>
+          <t>不</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf70</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>危险废物产生者未按照规定处置其产生的危险废物被责令改正后拒不改正</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>应当按照国家有关规定</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>第79条第1款</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>产生危险废物的单位，应当按照国家有关规定和环境保护标准要求贮存、利用、处置危险废物，不得擅自倾倒、堆放。</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>第113条第1款</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，危险废物产生者未按照规定处置其产生的危险废物被责令改正后拒不改正的，由生态环境主管部门组织代为处置，处置费用由危险废物产生者承担；拒不承担代为处置费用的，处代为处置费用一倍以上三倍以下的罚款。</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>第113条第1款</t>
+        </is>
+      </c>
+      <c r="I71" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，危险废物产生者未按照规定处置其产生的危险废物被责令改正后拒不改正的，由生态环境主管部门组织代为处置，处置费用由危险废物产生者承担；拒不承担代为处置费用的，处代为处置费用一倍以上三倍以下的罚款。</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="inlineStr">
+        <is>
+          <t>不</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf71</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>危险废物产生者拒不承担代为处置费用</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>应当按照国家有关规定</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>第79条第1款</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>产生危险废物的单位，应当按照国家有关规定和环境保护标准要求贮存、利用、处置危险废物，不得擅自倾倒、堆放。</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>第113条第1款</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，危险废物产生者未按照规定处置其产生的危险废物被责令改正后拒不改正的，由生态环境主管部门组织代为处置，处置费用由危险废物产生者承担；拒不承担代为处置费用的，处代为处置费用一倍以上三倍以下的罚款。</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>第113条第1款</t>
+        </is>
+      </c>
+      <c r="I72" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，危险废物产生者未按照规定处置其产生的危险废物被责令改正后拒不改正的，由生态环境主管部门组织代为处置，处置费用由危险废物产生者承担；拒不承担代为处置费用的，处代为处置费用一倍以上三倍以下的罚款。</t>
+        </is>
+      </c>
+      <c r="J72" s="1" t="inlineStr">
+        <is>
+          <t>不</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf72</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>无许可证从事收集、贮存、利用、处置危险废物经营活动</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>应当申请取得许可证</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>第80条第1款</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>从事收集、贮存、利用、处置危险废物经营活动的单位，应当按照国家有关规定申请取得许可证。许可证的具体管理办法由国务院制定。</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>第114条第1款</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>无许可证从事收集、贮存、利用、处置危险废物经营活动的，由生态环境主管部门责令改正，处一百万元以上五百万元以下的罚款，并报经有批准权的人民政府批准，责令停业或者关闭；对法定代表人、主要负责人、直接负责的主管人员和其他责任人员，处十万元以上一百万元以下的罚款。</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>第114条第1款</t>
+        </is>
+      </c>
+      <c r="I73" s="1" t="inlineStr">
+        <is>
+          <t>无许可证从事收集、贮存、利用、处置危险废物经营活动的，由生态环境主管部门责令改正，处一百万元以上五百万元以下的罚款，并报经有批准权的人民政府批准，责令停业或者关闭；对法定代表人、主要负责人、直接负责的主管人员和其他责任人员，处十万元以上一百万元以下的罚款。</t>
+        </is>
+      </c>
+      <c r="J73" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl5</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>销售未取得河道采砂许可证的单位、个人开采的长江河道砂石</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>禁止销售</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>第17条第1款</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>禁止运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石。</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>第20条第1款</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石的，由县级以上地方人民政府水行政主管部门、长江水利委员会、有关海事管理机构以及县级以上地方人民政府其他有关部门依据职权，责令停止违法行为，没收违法运输、收购、销售的砂石和违法所得，并处2万元以上20万元以下的罚款；情节严重的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>第20条第1款</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，运输、收购、销售未取得河道采砂许可证的单位、个人开采的长江河道砂石的，由县级以上地方人民政府水行政主管部门、长江水利委员会、有关海事管理机构以及县级以上地方人民政府其他有关部门依据职权，责令停止违法行为，没收违法运输、收购、销售的砂石和违法所得，并处2万元以上20万元以下的罚款；情节严重的，并处20万元以上200万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf73</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>未按照许可证规定从事收集、贮存、利用、处置危险废物经营活动</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>未按照许可证规定</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>第120条第1款第4项</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>无许可证或者未按照许可证规定从事收集、贮存、利用、处置危险废物经营活动的；</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>第114条第2款</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>未按照许可证规定从事收集、贮存、利用、处置危险废物经营活动的，由生态环境主管部门责令改正，限制生产、停产整治，处五十万元以上二百万元以下的罚款；对法定代表人、主要负责人、直接负责的主管人员和其他责任人员，处五万元以上五十万元以下的罚款；情节严重的，报经有批准权的人民政府批准，责令停业或者关闭，还可以由发证机关吊销许可证。</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>第114条第2款</t>
+        </is>
+      </c>
+      <c r="I74" s="1" t="inlineStr">
+        <is>
+          <t>未按照许可证规定从事收集、贮存、利用、处置危险废物经营活动的，由生态环境主管部门责令改正，限制生产、停产整治，处五十万元以上二百万元以下的罚款；对法定代表人、主要负责人、直接负责的主管人员和其他责任人员，处五万元以上五十万元以下的罚款；情节严重的，报经有批准权的人民政府批准，责令停业或者关闭，还可以由发证机关吊销许可证。</t>
+        </is>
+      </c>
+      <c r="J74" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>采砂船舶未在指定地点集中停放</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>应当集中停放</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>第16条第1款</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>除按照河道采砂许可证规定的期限在可采区作业外，采砂船舶应当集中停放在沿江县级人民政府指定的地点，并由采砂船舶所有者或者使用者负责管护。无正当理由，不得擅自离开指定的地点。</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>第21条第1款</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，采砂船舶未在指定地点集中停放或者无正当理由擅自离开指定地点的，由县级以上地方人民政府水行政主管部门责令停靠在指定地点，处3万元以上10万元以下的罚款；拒不改正的，予以强行转移至指定地点。</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>第21条第1款</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，采砂船舶未在指定地点集中停放或者无正当理由擅自离开指定地点的，由县级以上地方人民政府水行政主管部门责令停靠在指定地点，处3万元以上10万元以下的罚款；拒不改正的，予以强行转移至指定地点。</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>不</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl7</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>采砂船舶无正当理由擅自离开指定地点</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>不得擅自离开</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>第16条第1款</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>除按照河道采砂许可证规定的期限在可采区作业外，采砂船舶应当集中停放在沿江县级人民政府指定的地点，并由采砂船舶所有者或者使用者负责管护。无正当理由，不得擅自离开指定的地点。</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>第21条第1款</t>
-        </is>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，采砂船舶未在指定地点集中停放或者无正当理由擅自离开指定地点的，由县级以上地方人民政府水行政主管部门责令停靠在指定地点，处3万元以上10万元以下的罚款；拒不改正的，予以强行转移至指定地点。</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>第21条第1款</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
-        <is>
-          <t>违反本条例规定，采砂船舶未在指定地点集中停放或者无正当理由擅自离开指定地点的，由县级以上地方人民政府水行政主管部门责令停靠在指定地点，处3万元以上10万元以下的罚款；拒不改正的，予以强行转移至指定地点。</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf74</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>将中华人民共和国境外的固体废物输入境内</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>第115条第1款</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，将中华人民共和国境外的固体废物输入境内的，由海关责令退运该固体废物，处五十万元以上五百万元以下的罚款。</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>第115条第1款</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，将中华人民共和国境外的固体废物输入境内的，由海关责令退运该固体废物，处五十万元以上五百万元以下的罚款。</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>第115条第1款</t>
+        </is>
+      </c>
+      <c r="I75" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，将中华人民共和国境外的固体废物输入境内的，由海关责令退运该固体废物，处五十万元以上五百万元以下的罚款。</t>
+        </is>
+      </c>
+      <c r="J75" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl8</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>伪造河道采砂许可证</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf75</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>经中华人民共和国过境转移危险废物</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>禁止过境转移</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>第89条第1款</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>禁止经中华人民共和国过境转移危险废物。</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="inlineStr">
+        <is>
+          <t>第116条第1款</t>
+        </is>
+      </c>
+      <c r="G76" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，经中华人民共和国过境转移危险废物的，由海关责令退运该危险废物，处五十万元以上五百万元以下的罚款。</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>第116条第1款</t>
+        </is>
+      </c>
+      <c r="I76" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，经中华人民共和国过境转移危险废物的，由海关责令退运该危险废物，处五十万元以上五百万元以下的罚款。</t>
+        </is>
+      </c>
+      <c r="J76" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl9</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>变造河道采砂许可证</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf76</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，造成固体废物污染环境事故</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>固体废物污染环境</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>第2条第1款</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>固体废物污染环境的防治适用本法。</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>第118条第1款</t>
+        </is>
+      </c>
+      <c r="G77" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，造成固体废物污染环境事故的，除依法承担赔偿责任外，由生态环境主管部门依照本条第2款的规定处以罚款，责令限期采取治理措施；造成重大或者特大固体废物污染环境事故的，还可以报经有批准权的人民政府批准，责令关闭。</t>
+        </is>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>第118条第1款|第118条第2款</t>
+        </is>
+      </c>
+      <c r="I77" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，造成固体废物污染环境事故的，除依法承担赔偿责任外，由生态环境主管部门依照本条第2款的规定处以罚款，责令限期采取治理措施；造成重大或者特大固体废物污染环境事故的，还可以报经有批准权的人民政府批准，责令关闭。|造成一般或者较大固体废物污染环境事故的，按照事故造成的直接经济损失的一倍以上三倍以下计算罚款；造成重大或者特大固体废物污染环境事故的，按照事故造成的直接经济损失的三倍以上五倍以下计算罚款，并对法定代表人、主要负责人、直接负责的主管人员和其他责任人员处上一年度从本单位取得的收入百分之五十以下的罚款。</t>
+        </is>
+      </c>
+      <c r="J77" s="1" t="inlineStr">
         <is>
           <t>乱</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl10</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>转让河道采砂许可证</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J11" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf77</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>造成一般或者较大固体废物污染环境事故</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>防止或者减少污染</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>第5条第2款</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位和个人，应当采取措施，防止或者减少固体废物对环境的污染，对所造成的环境污染依法承担责任。</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>第118条第2款</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <t>造成一般或者较大固体废物污染环境事故的，按照事故造成的直接经济损失的一倍以上三倍以下计算罚款；造成重大或者特大固体废物污染环境事故的，按照事故造成的直接经济损失的三倍以上五倍以下计算罚款，并对法定代表人、主要负责人、直接负责的主管人员和其他责任人员处上一年度从本单位取得的收入百分之五十以下的罚款。</t>
+        </is>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>第118条第1款|第118条第2款</t>
+        </is>
+      </c>
+      <c r="I78" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，造成固体废物污染环境事故的，除依法承担赔偿责任外，由生态环境主管部门依照本条第2款的规定处以罚款，责令限期采取治理措施；造成重大或者特大固体废物污染环境事故的，还可以报经有批准权的人民政府批准，责令关闭。|造成一般或者较大固体废物污染环境事故的，按照事故造成的直接经济损失的一倍以上三倍以下计算罚款；造成重大或者特大固体废物污染环境事故的，按照事故造成的直接经济损失的三倍以上五倍以下计算罚款，并对法定代表人、主要负责人、直接负责的主管人员和其他责任人员处上一年度从本单位取得的收入百分之五十以下的罚款。</t>
+        </is>
+      </c>
+      <c r="J78" s="1" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf78</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>造成重大或者特大固体废物污染环境事故</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>防止或者减少污染</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>第5条第2款</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>产生、收集、贮存、运输、利用、处置固体废物的单位和个人，应当采取措施，防止或者减少固体废物对环境的污染，对所造成的环境污染依法承担责任。</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>第118条第2款</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <t>造成一般或者较大固体废物污染环境事故的，按照事故造成的直接经济损失的一倍以上三倍以下计算罚款；造成重大或者特大固体废物污染环境事故的，按照事故造成的直接经济损失的三倍以上五倍以下计算罚款，并对法定代表人、主要负责人、直接负责的主管人员和其他责任人员处上一年度从本单位取得的收入百分之五十以下的罚款。</t>
+        </is>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>第118条第1款|第118条第2款</t>
+        </is>
+      </c>
+      <c r="I79" s="1" t="inlineStr">
+        <is>
+          <t>违反本法规定，造成固体废物污染环境事故的，除依法承担赔偿责任外，由生态环境主管部门依照本条第2款的规定处以罚款，责令限期采取治理措施；造成重大或者特大固体废物污染环境事故的，还可以报经有批准权的人民政府批准，责令关闭。|造成一般或者较大固体废物污染环境事故的，按照事故造成的直接经济损失的一倍以上三倍以下计算罚款；造成重大或者特大固体废物污染环境事故的，按照事故造成的直接经济损失的三倍以上五倍以下计算罚款，并对法定代表人、主要负责人、直接负责的主管人员和其他责任人员处上一年度从本单位取得的收入百分之五十以下的罚款。</t>
+        </is>
+      </c>
+      <c r="J79" s="1" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>zhrmghggtfwwrhjfzf79</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>单位和其他生产经营者违反本法规定排放固体废物</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>不得擅自倾倒、堆放</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>第79条第1款</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>产生危险废物的单位，应当按照国家有关规定和环境保护标准要求贮存、利用、处置危险废物，不得擅自倾倒、堆放。</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>第119条第1款</t>
+        </is>
+      </c>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <t>单位和其他生产经营者违反本法规定排放固体废物，受到罚款处罚，被责令改正的，依法作出处罚决定的行政机关应当组织复查，发现其继续实施该违法行为的，依照《中华人民共和国环境保护法》的规定按日连续处罚。</t>
+        </is>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v/>
+      </c>
+      <c r="I80" s="1" t="inlineStr"/>
+      <c r="J80" s="1" t="inlineStr">
         <is>
           <t>乱</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl11</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>出租河道采砂许可证</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>乱</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl12</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>出借河道采砂许可证</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>第22条第1款</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>伪造、变造、转让、出租、出借河道采砂许可证的，由县级以上地方人民政府水行政主管部门或者长江水利委员会依据职权予以吊销或者收缴，没收违法所得，并处5万元以上50万元以下的罚款；构成犯罪的，依法追究刑事责任。</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>乱</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl13</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>实施罚款的行政处罚未依照有关法律、行政法规的规定实行罚款决定与罚款收缴分离</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>应当实行罚款分离</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>第25条第1款</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>依照本条例实施罚款的行政处罚，应当依照有关法律、行政法规的规定，实行罚款决定与罚款收缴分离，所收取的罚款必须全部上缴国库。</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>第25条第1款</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>依照本条例实施罚款的行政处罚，应当依照有关法律、行政法规的规定，实行罚款决定与罚款收缴分离，所收取的罚款必须全部上缴国库。</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v/>
-      </c>
-      <c r="I14" s="1" t="inlineStr"/>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>不</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>cjhdcsgltl14</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>实施罚款的行政处罚所收取的罚款未全部上缴国库</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>应当全部上缴国库</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>第25条第1款</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>依照本条例实施罚款的行政处罚，应当依照有关法律、行政法规的规定，实行罚款决定与罚款收缴分离，所收取的罚款必须全部上缴国库。</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>第25条第1款</t>
-        </is>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>依照本条例实施罚款的行政处罚，应当依照有关法律、行政法规的规定，实行罚款决定与罚款收缴分离，所收取的罚款必须全部上缴国库。</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v/>
-      </c>
-      <c r="I15" s="1" t="inlineStr"/>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>不</t>
         </is>
       </c>
     </row>

--- a/data/law_cause.xlsx
+++ b/data/law_cause.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="保障中小企业款项支付条例" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="涉税专业服务管理办法(试行)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="酒泉市节约用水管理办法" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中华人民共和国道路交通安全法（2011）" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="中华人民共和国道路交通安全法（2021）" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,12 +484,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl1</t>
+          <t>zhrmghgdljtaqf（1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>机关、事业单位未在规定的期限内支付中小企业货物、工程、服务款项</t>
+          <t>机动车在高速公路上发生故障时，未将警告标志设置在故障车来车方向一百五十米以外，车上人员未迅速转移到右侧路肩上或者应急车道内，并且未迅速报警</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,44 +499,44 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>第9条第1款</t>
+          <t>第52条第1款</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>机关、事业单位从中小企业采购货物、工程、服务，应当自货物、工程、服务交付之日起30日内支付款项；合同另有约定的，从其约定，但付款期限最长不得超过60日。</t>
+          <t>机动车在道路上发生故障，需要停车排除故障时，驾驶人应当立即开启危险报警闪光灯，将机动车移至不妨碍交通的地方停放；难以移动的，应当持续开启危险报警闪光灯，并在来车方向设置警告标志等措施扩大示警距离，必要时迅速报警。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>第31条第1款第1项</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>未在规定的期限内支付中小企业货物、工程、服务款项；</t>
+          <t>机动车在高速公路上发生故障时，应当依照本法第五十二条的有关规定办理；但是，警告标志应当设置在故障车来车方向一百五十米以外，车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警。</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>机动车在高速公路上发生故障时，应当依照本法第五十二条的有关规定办理；但是，警告标志应当设置在故障车来车方向一百五十米以外，车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl2</t>
+          <t>zhrmghgdljtaqf（2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>机关、事业单位拖延检验、验收</t>
+          <t>行人、乘车人、非机动车驾驶人违反道路交通安全法律、法规关于道路通行规定</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,44 +546,44 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>第10条第2款</t>
+          <t>第57条第1款</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>合同双方应当在合同中约定明确、合理的检验或者验收期限，并在该期限内完成检验或者验收，法律、行政法规或者国家有关规定对检验或者验收期限另有规定的，从其规定。机关、事业单位和大型企业拖延检验或者验收的，付款期限自约定的检验或者验收期限届满之日起算。</t>
+          <t>驾驶非机动车在道路上行驶应当遵守有关交通安全的规定。非机动车应当在非机动车道内行驶；在没有非机动车道的道路上，应当靠车行道的右侧行驶。</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>第31条第1款第2项</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>拖延检验、验收；</t>
+          <t>行人、乘车人、非机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者五元以上五十元以下罚款；非机动车驾驶人拒绝接受罚款处罚的，可以扣留其非机动车。</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>行人、乘车人、非机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者五元以上五十元以下罚款；非机动车驾驶人拒绝接受罚款处罚的，可以扣留其非机动车。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl3</t>
+          <t>zhrmghgdljtaqf（3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>机关、事业单位强制中小企业接受商业汇票、应收账款电子凭证等非现金支付方式</t>
+          <t>非机动车驾驶人拒绝接受罚款处罚</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -594,44 +593,44 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>第11条第1款</t>
+          <t>第57条第1款</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>机关、事业单位和大型企业使用商业汇票、应收账款电子凭证等非现金支付方式支付中小企业款项的，应当在合同中作出明确、合理约定，不得强制中小企业接受商业汇票、应收账款电子凭证等非现金支付方式，不得利用商业汇票、应收账款电子凭证等非现金支付方式变相延长付款期限。</t>
+          <t>驾驶非机动车在道路上行驶应当遵守有关交通安全的规定。非机动车应当在非机动车道内行驶；在没有非机动车道的道路上，应当靠车行道的右侧行驶。</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>第31条第1款第3项</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>强制中小企业接受商业汇票、应收账款电子凭证等非现金支付方式，或者利用商业汇票、应收账款电子凭证等非现金支付方式变相延长付款期限；</t>
+          <t>行人、乘车人、非机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者五元以上五十元以下罚款；非机动车驾驶人拒绝接受罚款处罚的，可以扣留其非机动车。</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>行人、乘车人、非机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者五元以上五十元以下罚款；非机动车驾驶人拒绝接受罚款处罚的，可以扣留其非机动车。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl4</t>
+          <t>zhrmghgdljtaqf（4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>机关、事业单位利用商业汇票、应收账款电子凭证等非现金支付方式变相延长付款期限</t>
+          <t>机动车驾驶人违反道路交通安全法律、法规关于道路通行规定</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -641,44 +640,44 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>第11条第1款</t>
+          <t>第22条第1款</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>机关、事业单位和大型企业使用商业汇票、应收账款电子凭证等非现金支付方式支付中小企业款项的，应当在合同中作出明确、合理约定，不得强制中小企业接受商业汇票、应收账款电子凭证等非现金支付方式，不得利用商业汇票、应收账款电子凭证等非现金支付方式变相延长付款期限。</t>
+          <t>机动车驾驶人应当遵守道路交通安全法律、法规的规定，按照操作规范安全驾驶、文明驾驶。</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>第31条第1款第3项</t>
+          <t>第90条第1款</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>强制中小企业接受商业汇票、应收账款电子凭证等非现金支付方式，或者利用商业汇票、应收账款电子凭证等非现金支付方式变相延长付款期限；</t>
+          <t>机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者二十元以上二百元以下罚款。本法另有规定的，依照规定处罚。</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第90条第1款</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者二十元以上二百元以下罚款。本法另有规定的，依照规定处罚。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl5</t>
+          <t>zhrmghgdljtaqf（5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>机关、事业单位没有法律、行政法规依据，要求以审计机关的审计结果作为结算依据</t>
+          <t>饮酒后驾驶机动车</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -688,44 +687,44 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>第12条第1款</t>
+          <t>第19条第4款</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>机关、事业单位和国有大型企业不得强制要求以审计机关的审计结果作为结算依据，法律、行政法规另有规定的除外。</t>
+          <t>驾驶人应当按照驾驶证载明的准驾车型驾驶机动车；驾驶机动车时，应当随身携带机动车驾驶证。</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>第31条第1款第4项</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>没有法律、行政法规依据，要求以审计机关的审计结果作为结算依据；</t>
+          <t>饮酒后驾驶机动车的，处暂扣六个月机动车驾驶证，并处一千元以上二千元以下罚款。因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的，处十日以下拘留，并处一千元以上二千元以下罚款，吊销机动车驾驶证。</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>饮酒后驾驶机动车的，处暂扣六个月机动车驾驶证，并处一千元以上二千元以下罚款。因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的，处十日以下拘留，并处一千元以上二千元以下罚款，吊销机动车驾驶证。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl6</t>
+          <t>zhrmghgdljtaqf（6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>机关、事业单位违法收取保证金，拒绝接受中小企业以金融机构出具的保函等提供保证</t>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -735,44 +734,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>第13条第1款</t>
+          <t>第19条第4款</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>除依法设立的投标保证金、履约保证金、工程质量保证金、农民工工资保证金外，工程建设中不得以任何形式收取其他保证金。保证金的收取比例、方式应当符合法律、行政法规和国家有关规定。</t>
+          <t>驾驶人应当按照驾驶证载明的准驾车型驾驶机动车；驾驶机动车时，应当随身携带机动车驾驶证。</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>第31条第1款第5项</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>违法收取保证金，拒绝接受中小企业以金融机构出具的保函等提供保证，或者不及时与中小企业对保证金进行核算并退还；</t>
+          <t>饮酒后驾驶机动车的，处暂扣六个月机动车驾驶证，并处一千元以上二千元以下罚款。因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的，处十日以下拘留，并处一千元以上二千元以下罚款，吊销机动车驾驶证。</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>饮酒后驾驶机动车的，处暂扣六个月机动车驾驶证，并处一千元以上二千元以下罚款。因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的，处十日以下拘留，并处一千元以上二千元以下罚款，吊销机动车驾驶证。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl7</t>
+          <t>zhrmghgdljtaqf（7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>机关、事业单位不及时与中小企业对保证金进行核算并退还</t>
+          <t>饮酒后驾驶营运机动车</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -782,44 +781,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>第13条第3款</t>
+          <t>第19条第4款</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>机关、事业单位和大型企业应当依法或者按照合同约定，在保证期限届满后及时与中小企业对收取的保证金进行核算并退还。</t>
+          <t>驾驶人应当按照驾驶证载明的准驾车型驾驶机动车；驾驶机动车时，应当随身携带机动车驾驶证。</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>第31条第1款第5项</t>
+          <t>第91条第3款</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>违法收取保证金，拒绝接受中小企业以金融机构出具的保函等提供保证，或者不及时与中小企业对保证金进行核算并退还；</t>
+          <t>饮酒后驾驶营运机动车的，处十五日拘留，并处五千元罚款，吊销机动车驾驶证，五年内不得重新取得机动车驾驶证。</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第91条第3款</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>饮酒后驾驶营运机动车的，处十五日拘留，并处五千元罚款，吊销机动车驾驶证，五年内不得重新取得机动车驾驶证。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl8</t>
+          <t>zhrmghgdljtaqf（8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>机关、事业单位以法定代表人或者主要负责人变更，履行内部付款流程，或者在合同未作约定的情况下以等待竣工验收备案、决算审计等为由，拒绝或者迟延支付中小企业款项</t>
+          <t>公路客运车辆载客超过额定乘员</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -829,44 +828,44 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>第14条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>机关、事业单位和大型企业不得以法定代表人或者主要负责人变更，履行内部付款流程，或者在合同未作约定的情况下以等待竣工验收备案、决算审计等为由，拒绝或者迟延支付中小企业款项。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>第31条第1款第6项</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>以法定代表人或者主要负责人变更，履行内部付款流程，或者在合同未作约定的情况下以等待竣工验收备案、决算审计等为由，拒绝或者迟延支付中小企业款项；</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bzzxqykxzftl9</t>
+          <t>zhrmghgdljtaqf（9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>机关、事业单位未按照规定公开逾期尚未支付中小企业款项信息</t>
+          <t>公路客运车辆载客超过额定乘员百分之二十</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -876,32 +875,1019 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>第18条第2款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大型企业应当将逾期尚未支付中小企业款项的合同数量、金额等信息纳入企业年度报告，依法通过国家企业信用信息公示系统向社会公示。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>第31条第1款第7项</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>未按照规定公开逾期尚未支付中小企业款项信息。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>第31条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>机关、事业单位违反本条例，有下列情形之一的，由其上级机关、主管部门责令改正；拒不改正的，对负有责任的领导人员和直接责任人员依法给予处分：</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>公路客运车辆违反规定载货</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>第92条第1款</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>第92条第1款</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>第92条第1款</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>货运机动车超过核定载质量</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>第49条第1款</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>机动车载人不得超过核定的人数，客运机动车不得违反规定载货。</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>货运机动车超过核定载质量百分之三十</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>第49条第1款</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>机动车载人不得超过核定的人数，客运机动车不得违反规定载货。</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>货运机动车违反规定载客</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>第49条第1款</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>机动车载人不得超过核定的人数，客运机动车不得违反规定载货。</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>第92条第2款</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>机动车驾驶人违反道路交通安全法律、法规关于机动车停放、临时停车规定</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>第56条第1款</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>机动车应当在规定地点停放。禁止在人行道上停放机动车；但是，依照本法第三十三条规定施划的停车泊位除外。</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>第93条第1款</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>对违反道路交通安全法律、法规关于机动车停放、临时停车规定的，可以指出违法行为，并予以口头警告，令其立即驶离。</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>第93条第1款|第93条第2款</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>对违反道路交通安全法律、法规关于机动车停放、临时停车规定的，可以指出违法行为，并予以口头警告，令其立即驶离。|机动车驾驶人不在现场或者虽在现场但拒绝立即驶离，妨碍其他车辆、行人通行的，处二十元以上二百元以下罚款，并可以将该机动车拖移至不妨碍交通的地点或者公安机关交通管理部门指定的地点停放。公安机关交通管理部门拖车不得向当事人收取费用，并应当及时告知当事人停放地点。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、驾驶证</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>第16条第1款第3项</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、检验合格标志、保险标志；</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>第96条第1款</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、驾驶证的，由公安机关交通管理部门予以收缴，扣留该机动车，处十五日以下拘留，并处二千元以上五千元以下罚款；构成犯罪的，依法追究刑事责任。</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>第96条第1款</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、驾驶证的，由公安机关交通管理部门予以收缴，扣留该机动车，处十五日以下拘留，并处二千元以上五千元以下罚款；构成犯罪的，依法追究刑事责任。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>伪造、变造或者使用伪造、变造的检验合格标志、保险标志</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>第16条第1款第3项</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、检验合格标志、保险标志；</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>第96条第2款</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>伪造、变造或者使用伪造、变造的检验合格标志、保险标志的，由公安机关交通管理部门予以收缴，扣留该机动车，处十日以下拘留，并处一千元以上三千元以下罚款；构成犯罪的，依法追究刑事责任。</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>第96条第2款</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>伪造、变造或者使用伪造、变造的检验合格标志、保险标志的，由公安机关交通管理部门予以收缴，扣留该机动车，处十日以下拘留，并处一千元以上三千元以下罚款；构成犯罪的，依法追究刑事责任。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>使用其他车辆的机动车登记证书、号牌、行驶证、检验合格标志、保险标志</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>第16条第1款第4项</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>使用其他机动车的登记证书、号牌、行驶证、检验合格标志、保险标志。</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>第96条第3款</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>使用其他车辆的机动车登记证书、号牌、行驶证、检验合格标志、保险标志的，由公安机关交通管理部门予以收缴，扣留该机动车，处二千元以上五千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>第96条第3款</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>使用其他车辆的机动车登记证书、号牌、行驶证、检验合格标志、保险标志的，由公安机关交通管理部门予以收缴，扣留该机动车，处二千元以上五千元以下罚款。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>非法安装警报器、标志灯具</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>第97条第1款</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>非法安装警报器、标志灯具的，由公安机关交通管理部门强制拆除，予以收缴，并处二百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>第97条第1款</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>非法安装警报器、标志灯具的，由公安机关交通管理部门强制拆除，予以收缴，并处二百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>第97条第1款</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>非法安装警报器、标志灯具的，由公安机关交通管理部门强制拆除，予以收缴，并处二百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>第17条第1款</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>国家实行机动车第三者责任强制保险制度，设立道路交通事故社会救助基金。具体办法由国务院规定。</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>第98条第1款</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>第98条第1款|第98条第2款</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。|依照前款缴纳的罚款全部纳入道路交通事故社会救助基金。具体办法由国务院规定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>第98条第1款</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>第98条第1款</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>第98条第1款|第98条第2款</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。|依照前款缴纳的罚款全部纳入道路交通事故社会救助基金。具体办法由国务院规定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>未取得机动车驾驶证、机动车驾驶证被吊销或者机动车驾驶证被暂扣期间驾驶机动车</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>第99条第1款第1项</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>未取得机动车驾驶证、机动车驾驶证被吊销或者机动车驾驶证被暂扣期间驾驶机动车的；</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>第99条第1款第1项</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>未取得机动车驾驶证、机动车驾驶证被吊销或者机动车驾驶证被暂扣期间驾驶机动车的；</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款:</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>将机动车交由未取得机动车驾驶证或者机动车驾驶证被吊销、暂扣的人驾驶</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>第99条第1款第2项</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>将机动车交由未取得机动车驾驶证或者机动车驾驶证被吊销、暂扣的人驾驶的；</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>第99条第1款第2项</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>将机动车交由未取得机动车驾驶证或者机动车驾驶证被吊销、暂扣的人驾驶的；</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款:</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>造成交通事故后逃逸，尚不构成犯罪的</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>第119条第1款第5项</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>“交通事故”，是指车辆在道路上因过错或者意外造成的人身伤亡或者财产损失的事件。</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>第99条第1款第3项</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>造成交通事故后逃逸，尚不构成犯罪的；</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>机动车行驶超过规定时速百分之五十</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>第99条第1款第4项</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>机动车行驶超过规定时速百分之五十的；</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>第99条第1款第4项</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>机动车行驶超过规定时速百分之五十的；</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款:</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>强迫机动车驾驶人违反道路交通安全法律、法规和机动车安全驾驶要求驾驶机动车，造成交通事故，尚不构成犯罪</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>第22条第3款</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>任何人不得强迫、指使、纵容驾驶人违反道路交通安全法律、法规和机动车安全驾驶要求驾驶机动车。</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>第99条第1款第5项</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>强迫机动车驾驶人违反道路交通安全法律、法规和机动车安全驾驶要求驾驶机动车，造成交通事故，尚不构成犯罪的；</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款:</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>违反交通管制的规定强行通行，不听劝阻</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>第99条第1款第6项</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>违反交通管制的规定强行通行，不听劝阻的；</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>第99条第1款第6项</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>违反交通管制的规定强行通行，不听劝阻的；</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款:</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>故意损毁、移动、涂改交通设施，造成危害后果，尚不构成犯罪的</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>第99条第1款第7项</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>故意损毁、移动、涂改交通设施，造成危害后果，尚不构成犯罪的；</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>第99条第1款第7项</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>故意损毁、移动、涂改交通设施，造成危害后果，尚不构成犯罪的；</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款:</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>非法拦截、扣留机动车辆，不听劝阻，造成交通严重阻塞或者较大财产损失</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>第70条第2款</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>在道路上发生交通事故，未造成人身伤亡，当事人对事实及成因无争议的，可以即行撤离现场，恢复交通，自行协商处理损害赔偿事宜；不即行撤离现场的，应当迅速报告执勤的交通警察或者公安机关交通管理部门。</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>第99条第1款第8项</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>非法拦截、扣留机动车辆，不听劝阻，造成交通严重阻塞或者较大财产损失的。</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款:</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>出售已达到报废标准的机动车</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>第100条第3款</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>出售已达到报废标准的机动车的，没收违法所得，处销售金额等额的罚款，对该机动车依照本条第一款的规定处理。</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>第100条第3款</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>出售已达到报废标准的机动车的，没收违法所得，处销售金额等额的罚款，对该机动车依照本条第一款的规定处理。</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>第100条第3款</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>出售已达到报废标准的机动车的，没收违法所得，处销售金额等额的罚款，对该机动车依照本条第一款的规定处理。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>擅自生产、销售未经国家机动车产品主管部门许可生产的机动车型</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>第10条第1款</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>准予登记的机动车应当符合机动车国家安全技术标准。申请机动车登记时，应当接受对该机动车的安全技术检验。但是，经国家机动车产品主管部门依据机动车国家安全技术标准认定的企业生产的机动车型，该车型的新车在出厂时经检验符合机动车国家安全技术标准，获得检验合格证的，免予安全技术检验。</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>第103条第3款</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>擅自生产、销售未经国家机动车产品主管部门许可生产的机动车型的，没收非法生产、销售的机动车成品及配件，可以并处非法产品价值三倍以上五倍以下罚款；有营业执照的，由工商行政管理部门吊销营业执照，没有营业执照的，予以查封。</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>第103条第3款</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>擅自生产、销售未经国家机动车产品主管部门许可生产的机动车型的，没收非法生产、销售的机动车成品及配件，可以并处非法产品价值三倍以上五倍以下罚款；有营业执照的，由工商行政管理部门吊销营业执照，没有营业执照的，予以查封。</t>
         </is>
       </c>
     </row>
@@ -916,7 +1902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,442 +1960,466 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)11</t>
+          <t>zhrmghgdljtaqf（1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>使用税务师事务所名称未办理行政登记</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>机动车在高速公路上发生故障时，未将警告标志设置在故障车来车方向一百五十米以外</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>第31条第1款第1项</t>
+          <t>第52条第1款</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>使用税务师事务所名称未办理行政登记的；</t>
+          <t>机动车在道路上发生故障，需要停车排除故障时，驾驶人应当立即开启危险报警闪光灯，将机动车移至不妨碍交通的地方停放；难以移动的，应当持续开启危险报警闪光灯，并在来车方向设置警告标志等措施扩大示警距离，必要时迅速报警。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>机动车在高速公路上发生故障时，应当依照本法第五十二条的有关规定办理；但是，警告标志应当设置在故障车来车方向一百五十米以外，车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警。</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>机动车在高速公路上发生故障时，应当依照本法第五十二条的有关规定办理；但是，警告标志应当设置在故障车来车方向一百五十米以外，车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)12</t>
+          <t>zhrmghgdljtaqf（2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>提供涉税专业服务但未按规定报送涉税专业服务机构及涉税服务人员基本信息</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>机动车在高速公路上发生故障时，车上人员未迅速转移到右侧路肩上或者应急车道内</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>第31条第1款第2项</t>
+          <t>第52条第1款</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>提供涉税专业服务但未按规定报送涉税专业服务机构及涉税服务人员基本信息的；</t>
+          <t>机动车在道路上发生故障，需要停车排除故障时，驾驶人应当立即开启危险报警闪光灯，将机动车移至不妨碍交通的地方停放；难以移动的，应当持续开启危险报警闪光灯，并在来车方向设置警告标志等措施扩大示警距离，必要时迅速报警。</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>机动车在高速公路上发生故障时，应当依照本法第五十二条的有关规定办理；但是，警告标志应当设置在故障车来车方向一百五十米以外，车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警。</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>机动车在高速公路上发生故障时，应当依照本法第五十二条的有关规定办理；但是，警告标志应当设置在故障车来车方向一百五十米以外，车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)13</t>
+          <t>zhrmghgdljtaqf（3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>未按规定报送涉税专业服务业务委托协议、业务信息</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>机动车在高速公路上发生故障时，未迅速报警</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>第31条第1款第3项</t>
+          <t>第52条第1款</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>未按规定报送涉税专业服务业务委托协议、业务信息的；</t>
+          <t>机动车在道路上发生故障，需要停车排除故障时，驾驶人应当立即开启危险报警闪光灯，将机动车移至不妨碍交通的地方停放；难以移动的，应当持续开启危险报警闪光灯，并在来车方向设置警告标志等措施扩大示警距离，必要时迅速报警。</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>机动车在高速公路上发生故障时，应当依照本法第五十二条的有关规定办理；但是，警告标志应当设置在故障车来车方向一百五十米以外，车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警。</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第68条第1款</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>机动车在高速公路上发生故障时，应当依照本法第五十二条的有关规定办理；但是，警告标志应当设置在故障车来车方向一百五十米以外，车上人员应当迅速转移到右侧路肩上或者应急车道内，并且迅速报警。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)14</t>
+          <t>zhrmghgdljtaqf（4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>报送的基本信息、业务委托协议及业务信息与实际不符</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>行人、乘车人、非机动车驾驶人违反道路交通安全法律、法规关于道路通行规定</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>第31条第1款第4项</t>
+          <t>第57条第1款</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>报送的基本信息、业务委托协议及业务信息与实际不符的；</t>
+          <t>驾驶非机动车在道路上行驶应当遵守有关交通安全的规定。非机动车应当在非机动车道内行驶；在没有非机动车道的道路上，应当靠车行道的右侧行驶。</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>第33条第1款</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
-        </is>
-      </c>
+          <t>行人、乘车人、非机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者五元以上五十元以下罚款；非机动车驾驶人拒绝接受罚款处罚的，可以扣留其非机动车。</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)15</t>
+          <t>zhrmghgdljtaqf（5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>妨害税务机关依照本办法履行职责</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>非机动车驾驶人拒绝接受罚款处罚</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>第31条第1款第5项</t>
+          <t>第57条第1款</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>妨害税务机关依照本办法履行职责的；</t>
+          <t>驾驶非机动车在道路上行驶应当遵守有关交通安全的规定。非机动车应当在非机动车道内行驶；在没有非机动车道的道路上，应当靠车行道的右侧行驶。</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第89条第1款</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>第33条第1款</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
-        </is>
-      </c>
+          <t>行人、乘车人、非机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者五元以上五十元以下罚款；非机动车驾驶人拒绝接受罚款处罚的，可以扣留其非机动车。</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)16</t>
+          <t>zhrmghgdljtaqf（6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>未以涉税服务人员身份，而以委托方办税人员身份办理业务，或者存在其他不以真实身份办理业务情形</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>机动车驾驶人违反道路交通安全法律、法规关于道路通行规定</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>第31条第1款第6项</t>
+          <t>第22条第1款</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>未以涉税服务人员身份，而以委托方办税人员身份办理业务，或者存在其他不以真实身份办理业务情形的；</t>
+          <t>机动车驾驶人应当遵守道路交通安全法律、法规的规定，按照操作规范安全驾驶、文明驾驶。</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第90条第1款</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者二十元以上二百元以下罚款。本法另有规定的，依照规定处罚。</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第90条第1款</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>机动车驾驶人违反道路交通安全法律、法规关于道路通行规定的，处警告或者二十元以上二百元以下罚款。本法另有规定的，依照规定处罚。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)17</t>
+          <t>zhrmghgdljtaqf（7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>代为办理涉税业务未如实填报签署申报表等涉税文书</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>饮酒后驾驶机动车</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>第31条第1款第7项</t>
+          <t>第19条第4款</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>代为办理涉税业务未如实填报签署申报表等涉税文书的；</t>
+          <t>驾驶人应当按照驾驶证载明的准驾车型驾驶机动车；驾驶机动车时，应当随身携带机动车驾驶证。</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>饮酒后驾驶机动车的，处暂扣六个月机动车驾驶证，并处一千元以上二千元以下罚款。因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的，处十日以下拘留，并处一千元以上二千元以下罚款，吊销机动车驾驶证。</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>饮酒后驾驶机动车的，处暂扣六个月机动车驾驶证，并处一千元以上二千元以下罚款。因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的，处十日以下拘留，并处一千元以上二千元以下罚款，吊销机动车驾驶证。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)18</t>
+          <t>zhrmghgdljtaqf（8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>不具备相应专业能力而从事相关涉税专业服务</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>第31条第1款第8项</t>
+          <t>第19条第4款</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>不具备相应专业能力而从事相关涉税专业服务的；</t>
+          <t>驾驶人应当按照驾驶证载明的准驾车型驾驶机动车；驾驶机动车时，应当随身携带机动车驾驶证。</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>饮酒后驾驶机动车的，处暂扣六个月机动车驾驶证，并处一千元以上二千元以下罚款。因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的，处十日以下拘留，并处一千元以上二千元以下罚款，吊销机动车驾驶证。</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第1款</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>饮酒后驾驶机动车的，处暂扣六个月机动车驾驶证，并处一千元以上二千元以下罚款。因饮酒后驾驶机动车被处罚，再次饮酒后驾驶机动车的，处十日以下拘留，并处一千元以上二千元以下罚款，吊销机动车驾驶证。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)19</t>
+          <t>zhrmghgdljtaqf（9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>涉税服务人员违反规定，以个人名义提供涉税专业服务</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>饮酒后驾驶营运机动车</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>第31条第1款第9项</t>
+          <t>第19条第4款</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>涉税服务人员违反规定，以个人名义提供涉税专业服务的；</t>
+          <t>驾驶人应当按照驾驶证载明的准驾车型驾驶机动车；驾驶机动车时，应当随身携带机动车驾驶证。</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第3款</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>饮酒后驾驶营运机动车的，处十五日拘留，并处五千元罚款，吊销机动车驾驶证，五年内不得重新取得机动车驾驶证。</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第91条第3款</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>饮酒后驾驶营运机动车的，处十五日拘留，并处五千元罚款，吊销机动车驾驶证，五年内不得重新取得机动车驾驶证。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)20</t>
+          <t>zhrmghgdljtaqf（10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>其他违反税务机关管理规定的行为</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>公路客运车辆载客超过额定乘员</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>第31条第1款第10项</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>其他违反税务机关管理规定的行为。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>第33条第1款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>存在第三十一条第一款所列情形的，情节较重或者逾期不改正的，对机构处以一千元以下、对人员处以五百元以下罚款；情节严重的，对机构处以二千元以下、对人员处以一千元以下罚款。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)21</t>
+          <t>zhrmghgdljtaqf（11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>涉税专业服务机构及涉税服务人员违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠</t>
+          <t>公路客运车辆载客超过额定乘员百分之二十</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1419,44 +2429,44 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠的，对涉税专业服务机构及涉税服务人员按照《中华人民共和国税收征收管理法》及其实施细则相关规定予以处罚；涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员，处以一千元以下罚款；情节较重的，处以二千元以下罚款；情节严重的，处以五千元以下罚款。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠的，对涉税专业服务机构及涉税服务人员按照《中华人民共和国税收征收管理法》及其实施细则相关规定予以处罚；涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员，处以一千元以下罚款；情节较重的，处以二千元以下罚款；情节严重的，处以五千元以下罚款。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠的，对涉税专业服务机构及涉税服务人员按照《中华人民共和国税收征收管理法》及其实施细则相关规定予以处罚；涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员，处以一千元以下罚款；情节较重的，处以二千元以下罚款；情节严重的，处以五千元以下罚款。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)22</t>
+          <t>zhrmghgdljtaqf（12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员处以罚款</t>
+          <t>公路客运车辆违反规定载货</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1466,44 +2476,44 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠的，对涉税专业服务机构及涉税服务人员按照《中华人民共和国税收征收管理法》及其实施细则相关规定予以处罚；涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员，处以一千元以下罚款；情节较重的，处以二千元以下罚款；情节严重的，处以五千元以下罚款。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠的，对涉税专业服务机构及涉税服务人员按照《中华人民共和国税收征收管理法》及其实施细则相关规定予以处罚；涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员，处以一千元以下罚款；情节较重的，处以二千元以下罚款；情节严重的，处以五千元以下罚款。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>第33条第2款</t>
+          <t>第92条第1款</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>违反税收法律、行政法规，造成委托人未缴少缴税款或者骗取税收优惠的，对涉税专业服务机构及涉税服务人员按照《中华人民共和国税收征收管理法》及其实施细则相关规定予以处罚；涉税专业服务机构已被依法处罚、所属涉税服务人员未被依法处罚的，对负有直接责任的涉税服务人员，处以一千元以下罚款；情节较重的，处以二千元以下罚款；情节严重的，处以五千元以下罚款。</t>
+          <t>公路客运车辆载客超过额定乘员的，处二百元以上五百元以下罚款；超过额定乘员百分之二十或者违反规定载货的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)23</t>
+          <t>zhrmghgdljtaqf（13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>涉税专业服务机构未按涉税专业服务业务规范执业，出具虚假意见</t>
+          <t>货运机动车超过核定载质量</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1513,44 +2523,44 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>第32条第1款第2项</t>
+          <t>第49条第1款</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>未按涉税专业服务业务规范执业，出具虚假意见的；</t>
+          <t>机动车载人不得超过核定的人数，客运机动车不得违反规定载货。</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)24</t>
+          <t>zhrmghgdljtaqf（14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>涉税专业服务机构采取隐瞒、欺诈、贿赂、串通、回扣、不当承诺、恶意低价、虚假涉税宣传及广告等不正当手段承揽业务，损害国家税收利益、委托人或者他人利益</t>
+          <t>货运机动车超过核定载质量百分之三十</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1560,44 +2570,44 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>第32条第1款第3项</t>
+          <t>第49条第1款</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>采取隐瞒、欺诈、贿赂、串通、回扣、不当承诺、恶意低价、虚假涉税宣传及广告等不正当手段承揽业务，损害国家税收利益、委托人或者他人利益的；</t>
+          <t>机动车载人不得超过核定的人数，客运机动车不得违反规定载货。</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)25</t>
+          <t>zhrmghgdljtaqf（15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>涉税专业服务机构公开歪曲解读税收政策，扰乱正常税收秩序</t>
+          <t>货运机动车违反规定载客</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1607,44 +2617,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>第32条第1款第4项</t>
+          <t>第49条第1款</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>公开歪曲解读税收政策，扰乱正常税收秩序的；</t>
+          <t>机动车载人不得超过核定的人数，客运机动车不得违反规定载货。</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第92条第2款</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>货运机动车超过核定载质量的，处二百元以上五百元以下罚款；超过核定载质量百分之三十或者违反规定载客的，处五百元以上二千元以下罚款。</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)26</t>
+          <t>zhrmghgdljtaqf（16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>涉税专业服务机构唆使、诱导、帮助他人实施涉税违法违规活动</t>
+          <t>机动车驾驶人违反道路交通安全法律、法规关于机动车停放、临时停车规定</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1654,44 +2664,44 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>第32条第1款第5项</t>
+          <t>第56条第1款</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>唆使、诱导、帮助他人实施涉税违法违规活动的；</t>
+          <t>机动车应当在规定地点停放。禁止在人行道上停放机动车；但是，依照本法第三十三条规定施划的停车泊位除外。</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第93条第1款</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>对违反道路交通安全法律、法规关于机动车停放、临时停车规定的，可以指出违法行为，并予以口头警告，令其立即驶离。</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第93条第1款|第93条第2款</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>对违反道路交通安全法律、法规关于机动车停放、临时停车规定的，可以指出违法行为，并予以口头警告，令其立即驶离。|机动车驾驶人不在现场或者虽在现场但拒绝立即驶离，妨碍其他车辆、行人通行的，处二十元以上二百元以下罚款，并可以将该机动车拖移至不妨碍交通的地点或者公安机关交通管理部门指定的地点停放。公安机关交通管理部门拖车不得向当事人收取费用，并应当及时告知当事人停放地点。</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)27</t>
+          <t>zhrmghgdljtaqf（17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>涉税专业服务机构利用服务之便，谋取不正当利益</t>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、驾驶证</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1701,44 +2711,44 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>第32条第1款第6项</t>
+          <t>第16条第1款第3项</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>利用服务之便，谋取不正当利益的；</t>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、检验合格标志、保险标志；</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第96条第1款</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、驾驶证的，由公安机关交通管理部门予以收缴，扣留该机动车，处十五日以下拘留，并处二千元以上五千元以下罚款；构成犯罪的，依法追究刑事责任。</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第96条第1款</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、驾驶证的，由公安机关交通管理部门予以收缴，扣留该机动车，处十五日以下拘留，并处二千元以上五千元以下罚款；构成犯罪的，依法追究刑事责任。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)28</t>
+          <t>zhrmghgdljtaqf（18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>涉税专业服务机构以税务机关和税务人员的名义敲诈纳税人、扣缴义务人</t>
+          <t>伪造、变造或者使用伪造、变造的检验合格标志、保险标志</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1748,44 +2758,44 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>第32条第1款第7项</t>
+          <t>第16条第1款第3项</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>以税务机关和税务人员的名义敲诈纳税人、扣缴义务人的；</t>
+          <t>伪造、变造或者使用伪造、变造的机动车登记证书、号牌、行驶证、检验合格标志、保险标志；</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第96条第2款</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>伪造、变造或者使用伪造、变造的检验合格标志、保险标志的，由公安机关交通管理部门予以收缴，扣留该机动车，处十日以下拘留，并处一千元以上三千元以下罚款；构成犯罪的，依法追究刑事责任。</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第96条第2款</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>伪造、变造或者使用伪造、变造的检验合格标志、保险标志的，由公安机关交通管理部门予以收缴，扣留该机动车，处十日以下拘留，并处一千元以上三千元以下罚款；构成犯罪的，依法追究刑事责任。</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)29</t>
+          <t>zhrmghgdljtaqf（19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>涉税专业服务机构向税务机关工作人员及其配偶、子女及其配偶等亲属和其他特定关系人输送不正当利益或者指使、诱导委托人输送不正当利益</t>
+          <t>使用其他车辆的机动车登记证书、号牌、行驶证、检验合格标志、保险标志</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1795,44 +2805,44 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>第32条第1款第8项</t>
+          <t>第16条第1款第4项</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>向税务机关工作人员及其配偶、子女及其配偶等亲属和其他特定关系人输送不正当利益或者指使、诱导委托人输送不正当利益的；</t>
+          <t>使用其他机动车的登记证书、号牌、行驶证、检验合格标志、保险标志。</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第96条第3款</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>使用其他车辆的机动车登记证书、号牌、行驶证、检验合格标志、保险标志的，由公安机关交通管理部门予以收缴，扣留该机动车，处二千元以上五千元以下罚款。</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第96条第3款</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>使用其他车辆的机动车登记证书、号牌、行驶证、检验合格标志、保险标志的，由公安机关交通管理部门予以收缴，扣留该机动车，处二千元以上五千元以下罚款。</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sszyfwglbf(sx)30</t>
+          <t>zhrmghgdljtaqf（20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>涉税专业服务机构其他违反税收及相关法律法规的行为</t>
+          <t>非法安装警报器、标志灯具</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1842,192 +2852,596 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>第32条第1款第9项</t>
+          <t>第97条第1款</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>其他违反税收及相关法律法规的行为。</t>
+          <t>非法安装警报器、标志灯具的，由公安机关交通管理部门强制拆除，予以收缴，并处二百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第97条第1款</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
+          <t>非法安装警报器、标志灯具的，由公安机关交通管理部门强制拆除，予以收缴，并处二百元以上二千元以下罚款。</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>第33条第3款</t>
+          <t>第97条第1款</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>存在第三十二条第二项至第九项情形，未按照相关法律法规被处罚的，对涉税专业服务机构处以二千元以下、对涉税服务人员处以一千元以下罚款；情节较重的，对涉税专业服务机构处以五千元以下、对涉税服务人员处以二千元以下罚款；情节严重的，对涉税专业服务机构处以一万元以下、对涉税服务人员处以五千元以下罚款。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>编号</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>事由</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>说明</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>违则</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>违则条款</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>行为</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>违法行为</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>罚则</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>罚则条款</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>jqsjyysglbf1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>市、县(市、区)人民政府未按规定开展水平衡测试、落实节约用水措施</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>违则唯一，且动作、客体完整</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>第8条第1款</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>市、县(市、区)人民政府应当鼓励、支持节约用水的科学技术研究和有关设施、设备、器具的研制开发，推广应用先进节约用水技术，引导推动合同节水管理。</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>第40条第1款</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>违反本办法第十八条规定，未按规定开展水平衡测试、落实节约用水措施的，由市、县(市、区)水行政主管部门责令限期改正；逾期不改正的，处一万元以上三万元以下罚款。</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>第40条第1款</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>违反本办法第十八条规定，未按规定开展水平衡测试、落实节约用水措施的，由市、县(市、区)水行政主管部门责令限期改正；逾期不改正的，处一万元以上三万元以下罚款。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>jqsjyysglbf2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>从事高耗水服务业用水户用水水平超过用水定额，未在规定的期限内进行节约用水改造</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>违则唯一，且动作、客体完整</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>第34条第1款</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>洗浴、洗车、游泳、水上娱乐、人工滑雪场等高耗水服务业，应当采用国家规定的低耗水、循环用水等节水技术和设备设施，用水水平应当符合行业用水定额标准。</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>第41条第1款</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>违反本办法第三十四条规定，从事高耗水服务业用水户用水水平超过用水定额，未在规定的期限内进行节约用水改造的，由市、县(市、区)水行政主管部门责令限期改正；拒不改正的，处五千元以上二万元以下罚款。</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>第41条第1款</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>违反本办法第三十四条规定，从事高耗水服务业用水户用水水平超过用水定额，未在规定的期限内进行节约用水改造的，由市、县(市、区)水行政主管部门责令限期改正；拒不改正的，处五千元以上二万元以下罚款。</t>
+          <t>非法安装警报器、标志灯具的，由公安机关交通管理部门强制拆除，予以收缴，并处二百元以上二千元以下罚款。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>第17条第1款</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>国家实行机动车第三者责任强制保险制度，设立道路交通事故社会救助基金。具体办法由国务院规定。</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>第98条第1款</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>第98条第1款|第98条第2款</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。|依照前款缴纳的罚款全部纳入道路交通事故社会救助基金。具体办法由国务院规定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>第98条第1款</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>第98条第1款</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>第98条第1款|第98条第2款</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>机动车所有人、管理人未按照国家规定投保机动车第三者责任强制保险的，由公安机关交通管理部门扣留车辆至依照规定投保后，并处依照规定投保最低责任限额应缴纳的保险费的二倍罚款。|依照前款缴纳的罚款全部纳入道路交通事故社会救助基金。具体办法由国务院规定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>未取得机动车驾驶证、机动车驾驶证被吊销或者机动车驾驶证被暂扣期间驾驶机动车</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>第99条第1款第1项</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>未取得机动车驾驶证、机动车驾驶证被吊销或者机动车驾驶证被暂扣期间驾驶机动车的；</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>第99条第1款第1项</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>未取得机动车驾驶证、机动车驾驶证被吊销或者机动车驾驶证被暂扣期间驾驶机动车的；</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款：</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>将机动车交由未取得机动车驾驶证或者机动车驾驶证被吊销、暂扣的人驾驶</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>第99条第1款第2项</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>将机动车交由未取得机动车驾驶证或者机动车驾驶证被吊销、暂扣的人驾驶的；</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>第99条第1款第2项</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>将机动车交由未取得机动车驾驶证或者机动车驾驶证被吊销、暂扣的人驾驶的；</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款：</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>造成交通事故后逃逸，尚不构成犯罪的</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>第119条第1款第5项</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>“交通事故”，是指车辆在道路上因过错或者意外造成的人身伤亡或者财产损失的事件。</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>第99条第1款第3项</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>造成交通事故后逃逸，尚不构成犯罪的；</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款：</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>机动车行驶超过规定时速百分之五十</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>第99条第1款第4项</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>机动车行驶超过规定时速百分之五十的；</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>第99条第1款第4项</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>机动车行驶超过规定时速百分之五十的；</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款：</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>强迫机动车驾驶人违反道路交通安全法律、法规和机动车安全驾驶要求驾驶机动车，造成交通事故，尚不构成犯罪</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>第22条第3款</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>任何人不得强迫、指使、纵容驾驶人违反道路交通安全法律、法规和机动车安全驾驶要求驾驶机动车。</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>第99条第1款第5项</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>强迫机动车驾驶人违反道路交通安全法律、法规和机动车安全驾驶要求驾驶机动车，造成交通事故，尚不构成犯罪的；</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款：</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>违反交通管制的规定强行通行，不听劝阻</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>第99条第1款第6项</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>违反交通管制的规定强行通行，不听劝阻的；</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>第99条第1款第6项</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>违反交通管制的规定强行通行，不听劝阻的；</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款：</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>故意损毁、移动、涂改交通设施，造成危害后果，尚不构成犯罪的</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>第99条第1款第7项</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>故意损毁、移动、涂改交通设施，造成危害后果，尚不构成犯罪的；</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>第99条第1款第7项</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>故意损毁、移动、涂改交通设施，造成危害后果，尚不构成犯罪的；</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款：</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>非法拦截、扣留机动车辆，不听劝阻，造成交通严重阻塞或者较大财产损失</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>第70条第2款</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>在道路上发生交通事故，未造成人身伤亡，当事人对事实及成因无争议的，可以即行撤离现场，恢复交通，自行协商处理损害赔偿事宜；不即行撤离现场的，应当迅速报告执勤的交通警察或者公安机关交通管理部门。</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>第99条第1款第8项</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>非法拦截、扣留机动车辆，不听劝阻，造成交通严重阻塞或者较大财产损失的。</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>第99条第1款</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>有下列行为之一的，由公安机关交通管理部门处二百元以上二千元以下罚款：</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>出售已达到报废标准的机动车</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>第100条第3款</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>出售已达到报废标准的机动车的，没收违法所得，处销售金额等额的罚款，对该机动车依照本条第一款的规定处理。</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>第100条第3款</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>出售已达到报废标准的机动车的，没收违法所得，处销售金额等额的罚款，对该机动车依照本条第一款的规定处理。</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>第100条第3款</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>出售已达到报废标准的机动车的，没收违法所得，处销售金额等额的罚款，对该机动车依照本条第一款的规定处理。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>zhrmghgdljtaqf（32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>擅自生产、销售未经国家机动车产品主管部门许可生产的机动车型</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>违则唯一，且动作、客体完整</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>第10条第1款</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>准予登记的机动车应当符合机动车国家安全技术标准。申请机动车登记时，应当接受对该机动车的安全技术检验。但是，经国家机动车产品主管部门依据机动车国家安全技术标准认定的企业生产的机动车型，该车型的新车在出厂时经检验符合机动车国家安全技术标准，获得检验合格证的，免予安全技术检验。</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>第103条第3款</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>擅自生产、销售未经国家机动车产品主管部门许可生产的机动车型的，没收非法生产、销售的机动车成品及配件，可以并处非法产品价值三倍以上五倍以下罚款；有营业执照的，由工商行政管理部门吊销营业执照，没有营业执照的，予以查封。</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>第103条第3款</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>擅自生产、销售未经国家机动车产品主管部门许可生产的机动车型的，没收非法生产、销售的机动车成品及配件，可以并处非法产品价值三倍以上五倍以下罚款；有营业执照的，由工商行政管理部门吊销营业执照，没有营业执照的，予以查封。</t>
         </is>
       </c>
     </row>
